--- a/output/experiments/thesis_topic2/6h-bat-6months-disturbance-type.xlsx
+++ b/output/experiments/thesis_topic2/6h-bat-6months-disturbance-type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6959" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7106" uniqueCount="485">
   <si>
     <t>status</t>
   </si>
@@ -184,7 +184,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>R</t>
+    <t>C</t>
   </si>
   <si>
     <t>Sum</t>
@@ -457,7 +457,7 @@
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.005-2023-08-30_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.01-2023-08-30_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.01-2023-08-31_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.02-2023-08-30_001.xlsx</t>
@@ -466,10 +466,10 @@
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.03-2023-08-30_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.04-2023-08-30_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.04-2023-08-31_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.05-2023-08-30_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.05-2023-08-31_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.06-2023-08-30_001.xlsx</t>
@@ -481,10 +481,10 @@
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.08-2023-08-30_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.09-2023-08-30_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.09-2023-08-31_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.1-2023-08-30_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.1-2023-08-31_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal_neg-0.12-2023-08-30_001.xlsx</t>
@@ -847,7 +847,7 @@
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal_neg-0.02-2023-08-30_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal_neg-0.03-2023-08-30_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal_neg-0.03-2023-08-31_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal_neg-0.04-2023-08-30_001.xlsx</t>
@@ -889,7 +889,7 @@
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal_neg-0.25-2023-08-30_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal_neg-0.3-2023-08-30_001.xlsx</t>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal_neg-0.3-2023-08-31_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal_neg-0.35-2023-08-30_001.xlsx</t>
@@ -1016,6 +1016,12 @@
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-uniform-0.3-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-uniform-0.35-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-uniform-0.4-2023-08-30_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-29_001.xlsx</t>
@@ -1211,6 +1217,57 @@
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-uniform_neg-0.4-2023-08-29_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.001-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.005-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.01-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.02-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.03-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.04-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.05-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.06-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.07-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.08-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.09-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.1-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.12-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.14-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.16-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.18-2023-08-30_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal_neg-0.2-2023-08-30_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-29_001.xlsx</t>
@@ -12412,7 +12469,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>57</v>
@@ -12468,8 +12525,104 @@
       <c r="T67">
         <v>0.01</v>
       </c>
+      <c r="U67">
+        <v>381.4169587166741</v>
+      </c>
+      <c r="V67">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W67">
+        <v>1828.032775</v>
+      </c>
       <c r="X67" t="s">
         <v>147</v>
+      </c>
+      <c r="Y67">
+        <v>381.4169587166741</v>
+      </c>
+      <c r="Z67">
+        <v>363.4169587166741</v>
+      </c>
+      <c r="AA67">
+        <v>18</v>
+      </c>
+      <c r="AB67">
+        <v>18</v>
+      </c>
+      <c r="AC67">
+        <v>438</v>
+      </c>
+      <c r="AD67">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0.160994373710316</v>
+      </c>
+      <c r="AH67">
+        <v>0.160994373710316</v>
+      </c>
+      <c r="AI67">
+        <v>0.1533966550967125</v>
+      </c>
+      <c r="AK67">
+        <v>169.5516746221179</v>
+      </c>
+      <c r="AL67">
+        <v>193.8652840945562</v>
+      </c>
+      <c r="AN67">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AO67">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AP67">
+        <v>542.1001516034971</v>
+      </c>
+      <c r="AQ67">
+        <v>2369.132224477446</v>
+      </c>
+      <c r="AR67">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AS67">
+        <v>1480.767751852943</v>
+      </c>
+      <c r="AT67">
+        <v>29.00715576548622</v>
+      </c>
+      <c r="AU67">
+        <v>198.3407187571534</v>
+      </c>
+      <c r="AV67">
+        <v>4.475434662597193</v>
+      </c>
+      <c r="AW67">
+        <v>282.5861243701965</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>4.375928513058497</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:55">
@@ -12799,7 +12952,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
         <v>57</v>
@@ -12855,8 +13008,104 @@
       <c r="T70">
         <v>0.04</v>
       </c>
+      <c r="U70">
+        <v>389.6328755873728</v>
+      </c>
+      <c r="V70">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W70">
+        <v>1839.450648100006</v>
+      </c>
       <c r="X70" t="s">
         <v>150</v>
+      </c>
+      <c r="Y70">
+        <v>389.6328755873728</v>
+      </c>
+      <c r="Z70">
+        <v>371.6328755873728</v>
+      </c>
+      <c r="AA70">
+        <v>18</v>
+      </c>
+      <c r="AB70">
+        <v>18</v>
+      </c>
+      <c r="AC70">
+        <v>438</v>
+      </c>
+      <c r="AD70">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0.1644622750734451</v>
+      </c>
+      <c r="AH70">
+        <v>0.1644622750734451</v>
+      </c>
+      <c r="AI70">
+        <v>0.1568645564598417</v>
+      </c>
+      <c r="AK70">
+        <v>177.815461823556</v>
+      </c>
+      <c r="AL70">
+        <v>193.8174137638169</v>
+      </c>
+      <c r="AN70">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AO70">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AP70">
+        <v>542.1001516034985</v>
+      </c>
+      <c r="AQ70">
+        <v>2369.132224477447</v>
+      </c>
+      <c r="AR70">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AS70">
+        <v>1485.660460275089</v>
+      </c>
+      <c r="AT70">
+        <v>33.44737484412938</v>
+      </c>
+      <c r="AU70">
+        <v>198.9339892252959</v>
+      </c>
+      <c r="AV70">
+        <v>5.116575461479011</v>
+      </c>
+      <c r="AW70">
+        <v>296.35910303926</v>
+      </c>
+      <c r="AX70">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AY70">
+        <v>6.023539463669574E-16</v>
+      </c>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <v>17.50371405223399</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:55">
@@ -12864,7 +13113,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
         <v>57</v>
@@ -12920,8 +13169,104 @@
       <c r="T71">
         <v>0.05</v>
       </c>
+      <c r="U71">
+        <v>390.817677922863</v>
+      </c>
+      <c r="V71">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W71">
+        <v>1863.345804600001</v>
+      </c>
       <c r="X71" t="s">
         <v>151</v>
+      </c>
+      <c r="Y71">
+        <v>390.817677922863</v>
+      </c>
+      <c r="Z71">
+        <v>372.817677922863</v>
+      </c>
+      <c r="AA71">
+        <v>18</v>
+      </c>
+      <c r="AB71">
+        <v>18</v>
+      </c>
+      <c r="AC71">
+        <v>438</v>
+      </c>
+      <c r="AD71">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0.1649623747822115</v>
+      </c>
+      <c r="AH71">
+        <v>0.1649623747822115</v>
+      </c>
+      <c r="AI71">
+        <v>0.157364656168608</v>
+      </c>
+      <c r="AK71">
+        <v>178.7080427239861</v>
+      </c>
+      <c r="AL71">
+        <v>194.1096351988769</v>
+      </c>
+      <c r="AN71">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AO71">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AP71">
+        <v>542.1001516034985</v>
+      </c>
+      <c r="AQ71">
+        <v>2369.132224477447</v>
+      </c>
+      <c r="AR71">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AS71">
+        <v>1487.412626619135</v>
+      </c>
+      <c r="AT71">
+        <v>35.21892128419553</v>
+      </c>
+      <c r="AU71">
+        <v>199.4815642363734</v>
+      </c>
+      <c r="AV71">
+        <v>5.371929037496513</v>
+      </c>
+      <c r="AW71">
+        <v>297.8467378733102</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>21.87964256529249</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:55">
@@ -13412,7 +13757,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
         <v>57</v>
@@ -13468,8 +13813,104 @@
       <c r="T75">
         <v>0.09</v>
       </c>
+      <c r="U75">
+        <v>402.4222818225528</v>
+      </c>
+      <c r="V75">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W75">
+        <v>1870.299428999999</v>
+      </c>
       <c r="X75" t="s">
         <v>155</v>
+      </c>
+      <c r="Y75">
+        <v>402.4222818225528</v>
+      </c>
+      <c r="Z75">
+        <v>384.4222818225528</v>
+      </c>
+      <c r="AA75">
+        <v>18</v>
+      </c>
+      <c r="AB75">
+        <v>18</v>
+      </c>
+      <c r="AC75">
+        <v>438</v>
+      </c>
+      <c r="AD75">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0.169860625618443</v>
+      </c>
+      <c r="AH75">
+        <v>0.169860625618443</v>
+      </c>
+      <c r="AI75">
+        <v>0.1622629070048395</v>
+      </c>
+      <c r="AK75">
+        <v>188.975539103001</v>
+      </c>
+      <c r="AL75">
+        <v>195.4467427195518</v>
+      </c>
+      <c r="AN75">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AO75">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AP75">
+        <v>542.1001516034994</v>
+      </c>
+      <c r="AQ75">
+        <v>2369.132224477448</v>
+      </c>
+      <c r="AR75">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AS75">
+        <v>1494.686085883916</v>
+      </c>
+      <c r="AT75">
+        <v>42.63543867873709</v>
+      </c>
+      <c r="AU75">
+        <v>201.8927596077303</v>
+      </c>
+      <c r="AV75">
+        <v>6.446016888178449</v>
+      </c>
+      <c r="AW75">
+        <v>314.9592318383351</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>39.38335661752647</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:55">
@@ -13477,7 +13918,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
         <v>57</v>
@@ -13533,8 +13974,104 @@
       <c r="T76">
         <v>0.1</v>
       </c>
+      <c r="U76">
+        <v>402.3380849609942</v>
+      </c>
+      <c r="V76">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W76">
+        <v>1780.829313599999</v>
+      </c>
       <c r="X76" t="s">
         <v>156</v>
+      </c>
+      <c r="Y76">
+        <v>402.3380849609942</v>
+      </c>
+      <c r="Z76">
+        <v>384.3380849609942</v>
+      </c>
+      <c r="AA76">
+        <v>18</v>
+      </c>
+      <c r="AB76">
+        <v>18</v>
+      </c>
+      <c r="AC76">
+        <v>438</v>
+      </c>
+      <c r="AD76">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0.1698250865038725</v>
+      </c>
+      <c r="AH76">
+        <v>0.1698250865038725</v>
+      </c>
+      <c r="AI76">
+        <v>0.1622273678902691</v>
+      </c>
+      <c r="AK76">
+        <v>188.5286854479722</v>
+      </c>
+      <c r="AL76">
+        <v>195.809399513022</v>
+      </c>
+      <c r="AN76">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AO76">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AP76">
+        <v>542.1001516034979</v>
+      </c>
+      <c r="AQ76">
+        <v>2369.132224477446</v>
+      </c>
+      <c r="AR76">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AS76">
+        <v>1496.816102028573</v>
+      </c>
+      <c r="AT76">
+        <v>44.76920764454599</v>
+      </c>
+      <c r="AU76">
+        <v>202.5722719205308</v>
+      </c>
+      <c r="AV76">
+        <v>6.762872407508754</v>
+      </c>
+      <c r="AW76">
+        <v>314.2144757466203</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>43.75928513058497</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:55">
@@ -32850,7 +33387,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C197" t="s">
         <v>57</v>
@@ -32906,8 +33443,104 @@
       <c r="T197">
         <v>0.03</v>
       </c>
+      <c r="U197">
+        <v>374.6141274822577</v>
+      </c>
+      <c r="V197">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W197">
+        <v>1748.985806500001</v>
+      </c>
       <c r="X197" t="s">
         <v>277</v>
+      </c>
+      <c r="Y197">
+        <v>374.6141274822577</v>
+      </c>
+      <c r="Z197">
+        <v>356.6141274822577</v>
+      </c>
+      <c r="AA197">
+        <v>18</v>
+      </c>
+      <c r="AB197">
+        <v>18</v>
+      </c>
+      <c r="AC197">
+        <v>438</v>
+      </c>
+      <c r="AD197">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE197">
+        <v>0</v>
+      </c>
+      <c r="AF197">
+        <v>0</v>
+      </c>
+      <c r="AG197">
+        <v>0.168481984045445</v>
+      </c>
+      <c r="AH197">
+        <v>0.168481984045445</v>
+      </c>
+      <c r="AI197">
+        <v>0.1603865186309388</v>
+      </c>
+      <c r="AK197">
+        <v>174.9134841122136</v>
+      </c>
+      <c r="AL197">
+        <v>181.7006433700441</v>
+      </c>
+      <c r="AN197">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO197">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP197">
+        <v>545.3034230990065</v>
+      </c>
+      <c r="AQ197">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR197">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS197">
+        <v>1460.134522761415</v>
+      </c>
+      <c r="AT197">
+        <v>49.12278524319743</v>
+      </c>
+      <c r="AU197">
+        <v>190.0748159948083</v>
+      </c>
+      <c r="AV197">
+        <v>8.374172624764194</v>
+      </c>
+      <c r="AW197">
+        <v>291.522473520356</v>
+      </c>
+      <c r="AX197">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AY197">
+        <v>6.023546448786179E-16</v>
+      </c>
+      <c r="AZ197">
+        <v>0</v>
+      </c>
+      <c r="BA197">
+        <v>10.24839672310006</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:55">
@@ -35008,7 +35641,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C211" t="s">
         <v>57</v>
@@ -35064,8 +35697,104 @@
       <c r="T211">
         <v>0.3</v>
       </c>
+      <c r="U211">
+        <v>425.0130288191415</v>
+      </c>
+      <c r="V211">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W211">
+        <v>1435.3355706</v>
+      </c>
       <c r="X211" t="s">
         <v>291</v>
+      </c>
+      <c r="Y211">
+        <v>425.0130288191415</v>
+      </c>
+      <c r="Z211">
+        <v>407.0130288191415</v>
+      </c>
+      <c r="AA211">
+        <v>18</v>
+      </c>
+      <c r="AB211">
+        <v>18</v>
+      </c>
+      <c r="AC211">
+        <v>438</v>
+      </c>
+      <c r="AD211">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE211">
+        <v>0</v>
+      </c>
+      <c r="AF211">
+        <v>0</v>
+      </c>
+      <c r="AG211">
+        <v>0.1911487930844365</v>
+      </c>
+      <c r="AH211">
+        <v>0.1911487930844365</v>
+      </c>
+      <c r="AI211">
+        <v>0.1830533276699304</v>
+      </c>
+      <c r="AK211">
+        <v>218.0552914637603</v>
+      </c>
+      <c r="AL211">
+        <v>188.9577373553811</v>
+      </c>
+      <c r="AN211">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO211">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP211">
+        <v>545.3034230990074</v>
+      </c>
+      <c r="AQ211">
+        <v>2223.466975443574</v>
+      </c>
+      <c r="AR211">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS211">
+        <v>1519.237456489562</v>
+      </c>
+      <c r="AT211">
+        <v>110.0661428240347</v>
+      </c>
+      <c r="AU211">
+        <v>207.0460746988493</v>
+      </c>
+      <c r="AV211">
+        <v>18.08833734346823</v>
+      </c>
+      <c r="AW211">
+        <v>363.4254857729339</v>
+      </c>
+      <c r="AX211">
+        <v>1.77635683940025E-15</v>
+      </c>
+      <c r="AY211">
+        <v>3.01177322439309E-16</v>
+      </c>
+      <c r="AZ211">
+        <v>0</v>
+      </c>
+      <c r="BA211">
+        <v>102.4839672310005</v>
+      </c>
+      <c r="BB211">
+        <v>0</v>
+      </c>
+      <c r="BC211">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:55">
@@ -39903,7 +40632,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C242" t="s">
         <v>57</v>
@@ -39959,8 +40688,104 @@
       <c r="T242">
         <v>0.06</v>
       </c>
+      <c r="U242">
+        <v>376.3293503260788</v>
+      </c>
+      <c r="V242">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W242">
+        <v>3433.427017499998</v>
+      </c>
       <c r="X242" t="s">
         <v>322</v>
+      </c>
+      <c r="Y242">
+        <v>376.3293503260788</v>
+      </c>
+      <c r="Z242">
+        <v>358.3293503260788</v>
+      </c>
+      <c r="AA242">
+        <v>18</v>
+      </c>
+      <c r="AB242">
+        <v>18</v>
+      </c>
+      <c r="AC242">
+        <v>438</v>
+      </c>
+      <c r="AD242">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE242">
+        <v>0</v>
+      </c>
+      <c r="AF242">
+        <v>0</v>
+      </c>
+      <c r="AG242">
+        <v>0.1692534022237963</v>
+      </c>
+      <c r="AH242">
+        <v>0.1692534022237963</v>
+      </c>
+      <c r="AI242">
+        <v>0.1611579368092901</v>
+      </c>
+      <c r="AK242">
+        <v>175.7458687907594</v>
+      </c>
+      <c r="AL242">
+        <v>182.5834815353195</v>
+      </c>
+      <c r="AN242">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO242">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP242">
+        <v>545.3034230990071</v>
+      </c>
+      <c r="AQ242">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR242">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS242">
+        <v>1479.080632189882</v>
+      </c>
+      <c r="AT242">
+        <v>68.0304596561574</v>
+      </c>
+      <c r="AU242">
+        <v>192.9935652713965</v>
+      </c>
+      <c r="AV242">
+        <v>10.41008373607704</v>
+      </c>
+      <c r="AW242">
+        <v>292.9097813179324</v>
+      </c>
+      <c r="AX242">
+        <v>0</v>
+      </c>
+      <c r="AY242">
+        <v>0</v>
+      </c>
+      <c r="AZ242">
+        <v>-11.91321501018943</v>
+      </c>
+      <c r="BA242">
+        <v>11.71610767728231</v>
+      </c>
+      <c r="BB242">
+        <v>0</v>
+      </c>
+      <c r="BC242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:55">
@@ -39968,7 +40793,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C243" t="s">
         <v>57</v>
@@ -40024,8 +40849,104 @@
       <c r="T243">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U243">
+        <v>377.8597500321588</v>
+      </c>
+      <c r="V243">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W243">
+        <v>3463.662733199999</v>
+      </c>
       <c r="X243" t="s">
         <v>323</v>
+      </c>
+      <c r="Y243">
+        <v>377.8597500321588</v>
+      </c>
+      <c r="Z243">
+        <v>359.8597500321588</v>
+      </c>
+      <c r="AA243">
+        <v>18</v>
+      </c>
+      <c r="AB243">
+        <v>18</v>
+      </c>
+      <c r="AC243">
+        <v>438</v>
+      </c>
+      <c r="AD243">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE243">
+        <v>0</v>
+      </c>
+      <c r="AF243">
+        <v>0</v>
+      </c>
+      <c r="AG243">
+        <v>0.1699416965510707</v>
+      </c>
+      <c r="AH243">
+        <v>0.1699416965510707</v>
+      </c>
+      <c r="AI243">
+        <v>0.1618462311365646</v>
+      </c>
+      <c r="AK243">
+        <v>177.2914375525112</v>
+      </c>
+      <c r="AL243">
+        <v>182.5683124796476</v>
+      </c>
+      <c r="AN243">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO243">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP243">
+        <v>545.3034230990072</v>
+      </c>
+      <c r="AQ243">
+        <v>2223.466975443574</v>
+      </c>
+      <c r="AR243">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS243">
+        <v>1484.041585225476</v>
+      </c>
+      <c r="AT243">
+        <v>72.84731799603236</v>
+      </c>
+      <c r="AU243">
+        <v>193.4505909259587</v>
+      </c>
+      <c r="AV243">
+        <v>10.88227844631102</v>
+      </c>
+      <c r="AW243">
+        <v>295.4857292541853</v>
+      </c>
+      <c r="AX243">
+        <v>0</v>
+      </c>
+      <c r="AY243">
+        <v>0</v>
+      </c>
+      <c r="AZ243">
+        <v>-13.81304066242772</v>
+      </c>
+      <c r="BA243">
+        <v>14.00672925418532</v>
+      </c>
+      <c r="BB243">
+        <v>0</v>
+      </c>
+      <c r="BC243">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:55">
@@ -40033,7 +40954,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C244" t="s">
         <v>57</v>
@@ -40089,8 +41010,104 @@
       <c r="T244">
         <v>0.08</v>
       </c>
+      <c r="U244">
+        <v>379.088873837176</v>
+      </c>
+      <c r="V244">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W244">
+        <v>3527.933850200003</v>
+      </c>
       <c r="X244" t="s">
         <v>324</v>
+      </c>
+      <c r="Y244">
+        <v>379.088873837176</v>
+      </c>
+      <c r="Z244">
+        <v>361.088873837176</v>
+      </c>
+      <c r="AA244">
+        <v>18</v>
+      </c>
+      <c r="AB244">
+        <v>18</v>
+      </c>
+      <c r="AC244">
+        <v>438</v>
+      </c>
+      <c r="AD244">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE244">
+        <v>0</v>
+      </c>
+      <c r="AF244">
+        <v>0</v>
+      </c>
+      <c r="AG244">
+        <v>0.1704944926207187</v>
+      </c>
+      <c r="AH244">
+        <v>0.1704944926207187</v>
+      </c>
+      <c r="AI244">
+        <v>0.1623990272062125</v>
+      </c>
+      <c r="AK244">
+        <v>178.1791575178256</v>
+      </c>
+      <c r="AL244">
+        <v>182.9097163193505</v>
+      </c>
+      <c r="AN244">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO244">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP244">
+        <v>545.3034230990075</v>
+      </c>
+      <c r="AQ244">
+        <v>2223.466975443574</v>
+      </c>
+      <c r="AR244">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS244">
+        <v>1487.331447913524</v>
+      </c>
+      <c r="AT244">
+        <v>76.11152012501516</v>
+      </c>
+      <c r="AU244">
+        <v>194.2861947581282</v>
+      </c>
+      <c r="AV244">
+        <v>11.37647843877774</v>
+      </c>
+      <c r="AW244">
+        <v>296.9652625297092</v>
+      </c>
+      <c r="AX244">
+        <v>0</v>
+      </c>
+      <c r="AY244">
+        <v>0</v>
+      </c>
+      <c r="AZ244">
+        <v>-16.15540952040348</v>
+      </c>
+      <c r="BA244">
+        <v>15.83344390283855</v>
+      </c>
+      <c r="BB244">
+        <v>0</v>
+      </c>
+      <c r="BC244">
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:55">
@@ -40098,7 +41115,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C245" t="s">
         <v>57</v>
@@ -40154,8 +41171,104 @@
       <c r="T245">
         <v>0.09</v>
       </c>
+      <c r="U245">
+        <v>379.5796621446286</v>
+      </c>
+      <c r="V245">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W245">
+        <v>3480.506465699997</v>
+      </c>
       <c r="X245" t="s">
         <v>325</v>
+      </c>
+      <c r="Y245">
+        <v>379.5796621446286</v>
+      </c>
+      <c r="Z245">
+        <v>361.5796621446286</v>
+      </c>
+      <c r="AA245">
+        <v>18</v>
+      </c>
+      <c r="AB245">
+        <v>18</v>
+      </c>
+      <c r="AC245">
+        <v>438</v>
+      </c>
+      <c r="AD245">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE245">
+        <v>0</v>
+      </c>
+      <c r="AF245">
+        <v>0</v>
+      </c>
+      <c r="AG245">
+        <v>0.1707152237189869</v>
+      </c>
+      <c r="AH245">
+        <v>0.1707152237189869</v>
+      </c>
+      <c r="AI245">
+        <v>0.1626197583044807</v>
+      </c>
+      <c r="AK245">
+        <v>178.6269278372569</v>
+      </c>
+      <c r="AL245">
+        <v>182.9527343073717</v>
+      </c>
+      <c r="AN245">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO245">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP245">
+        <v>545.3034230990067</v>
+      </c>
+      <c r="AQ245">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR245">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS245">
+        <v>1488.483292232864</v>
+      </c>
+      <c r="AT245">
+        <v>77.36000287052929</v>
+      </c>
+      <c r="AU245">
+        <v>194.3903452973092</v>
+      </c>
+      <c r="AV245">
+        <v>11.43761098993743</v>
+      </c>
+      <c r="AW245">
+        <v>297.7115463954282</v>
+      </c>
+      <c r="AX245">
+        <v>0</v>
+      </c>
+      <c r="AY245">
+        <v>0</v>
+      </c>
+      <c r="AZ245">
+        <v>-17.27702236649651</v>
+      </c>
+      <c r="BA245">
+        <v>17.88174180964177</v>
+      </c>
+      <c r="BB245">
+        <v>0</v>
+      </c>
+      <c r="BC245">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:55">
@@ -40163,7 +41276,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C246" t="s">
         <v>57</v>
@@ -40219,8 +41332,104 @@
       <c r="T246">
         <v>0.1</v>
       </c>
+      <c r="U246">
+        <v>381.4045607536469</v>
+      </c>
+      <c r="V246">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W246">
+        <v>3539.907866699999</v>
+      </c>
       <c r="X246" t="s">
         <v>326</v>
+      </c>
+      <c r="Y246">
+        <v>381.4045607536469</v>
+      </c>
+      <c r="Z246">
+        <v>363.4045607536469</v>
+      </c>
+      <c r="AA246">
+        <v>18</v>
+      </c>
+      <c r="AB246">
+        <v>18</v>
+      </c>
+      <c r="AC246">
+        <v>438</v>
+      </c>
+      <c r="AD246">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE246">
+        <v>0</v>
+      </c>
+      <c r="AF246">
+        <v>0</v>
+      </c>
+      <c r="AG246">
+        <v>0.1715359683620029</v>
+      </c>
+      <c r="AH246">
+        <v>0.1715359683620029</v>
+      </c>
+      <c r="AI246">
+        <v>0.1634405029474968</v>
+      </c>
+      <c r="AK246">
+        <v>180.1159998805856</v>
+      </c>
+      <c r="AL246">
+        <v>183.2885608730613</v>
+      </c>
+      <c r="AN246">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO246">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP246">
+        <v>545.3034230990067</v>
+      </c>
+      <c r="AQ246">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR246">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS246">
+        <v>1498.372573363389</v>
+      </c>
+      <c r="AT246">
+        <v>87.05215344785711</v>
+      </c>
+      <c r="AU246">
+        <v>195.9622363770607</v>
+      </c>
+      <c r="AV246">
+        <v>12.67367550399937</v>
+      </c>
+      <c r="AW246">
+        <v>300.1933331343093</v>
+      </c>
+      <c r="AX246">
+        <v>0</v>
+      </c>
+      <c r="AY246">
+        <v>0</v>
+      </c>
+      <c r="AZ246">
+        <v>-20.13887884626094</v>
+      </c>
+      <c r="BA246">
+        <v>18.7143331343093</v>
+      </c>
+      <c r="BB246">
+        <v>0</v>
+      </c>
+      <c r="BC246">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:55">
@@ -40228,7 +41437,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C247" t="s">
         <v>57</v>
@@ -40284,8 +41493,104 @@
       <c r="T247">
         <v>0.12</v>
       </c>
+      <c r="U247">
+        <v>385.0686622115144</v>
+      </c>
+      <c r="V247">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W247">
+        <v>3552.280992500004</v>
+      </c>
       <c r="X247" t="s">
         <v>327</v>
+      </c>
+      <c r="Y247">
+        <v>385.0686622115144</v>
+      </c>
+      <c r="Z247">
+        <v>367.0686622115144</v>
+      </c>
+      <c r="AA247">
+        <v>18</v>
+      </c>
+      <c r="AB247">
+        <v>18</v>
+      </c>
+      <c r="AC247">
+        <v>438</v>
+      </c>
+      <c r="AD247">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE247">
+        <v>0</v>
+      </c>
+      <c r="AF247">
+        <v>0</v>
+      </c>
+      <c r="AG247">
+        <v>0.1731838909524144</v>
+      </c>
+      <c r="AH247">
+        <v>0.1731838909524144</v>
+      </c>
+      <c r="AI247">
+        <v>0.1650884255379083</v>
+      </c>
+      <c r="AK247">
+        <v>183.148351187174</v>
+      </c>
+      <c r="AL247">
+        <v>183.9203110243404</v>
+      </c>
+      <c r="AN247">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO247">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP247">
+        <v>545.3034230990063</v>
+      </c>
+      <c r="AQ247">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR247">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS247">
+        <v>1505.660077532111</v>
+      </c>
+      <c r="AT247">
+        <v>94.40551999787164</v>
+      </c>
+      <c r="AU247">
+        <v>197.5607559773445</v>
+      </c>
+      <c r="AV247">
+        <v>13.64044495300408</v>
+      </c>
+      <c r="AW247">
+        <v>305.2472519786232</v>
+      </c>
+      <c r="AX247">
+        <v>0</v>
+      </c>
+      <c r="AY247">
+        <v>0</v>
+      </c>
+      <c r="AZ247">
+        <v>-23.84763938146125</v>
+      </c>
+      <c r="BA247">
+        <v>24.06827867626703</v>
+      </c>
+      <c r="BB247">
+        <v>0</v>
+      </c>
+      <c r="BC247">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:55">
@@ -40293,7 +41598,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C248" t="s">
         <v>57</v>
@@ -40349,8 +41654,104 @@
       <c r="T248">
         <v>0.14</v>
       </c>
+      <c r="U248">
+        <v>387.0709322500985</v>
+      </c>
+      <c r="V248">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W248">
+        <v>3640.815370800003</v>
+      </c>
       <c r="X248" t="s">
         <v>328</v>
+      </c>
+      <c r="Y248">
+        <v>387.0709322500985</v>
+      </c>
+      <c r="Z248">
+        <v>369.0709322500985</v>
+      </c>
+      <c r="AA248">
+        <v>18</v>
+      </c>
+      <c r="AB248">
+        <v>18</v>
+      </c>
+      <c r="AC248">
+        <v>438</v>
+      </c>
+      <c r="AD248">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE248">
+        <v>0</v>
+      </c>
+      <c r="AF248">
+        <v>0</v>
+      </c>
+      <c r="AG248">
+        <v>0.1740844080550732</v>
+      </c>
+      <c r="AH248">
+        <v>0.1740844080550732</v>
+      </c>
+      <c r="AI248">
+        <v>0.1659889426405671</v>
+      </c>
+      <c r="AK248">
+        <v>184.5506418096196</v>
+      </c>
+      <c r="AL248">
+        <v>184.5202904404789</v>
+      </c>
+      <c r="AN248">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO248">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP248">
+        <v>545.3034230990074</v>
+      </c>
+      <c r="AQ248">
+        <v>2223.466975443574</v>
+      </c>
+      <c r="AR248">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS248">
+        <v>1506.524280047653</v>
+      </c>
+      <c r="AT248">
+        <v>95.29864197930978</v>
+      </c>
+      <c r="AU248">
+        <v>197.9244136423439</v>
+      </c>
+      <c r="AV248">
+        <v>13.40412320186499</v>
+      </c>
+      <c r="AW248">
+        <v>307.5844030160327</v>
+      </c>
+      <c r="AX248">
+        <v>0</v>
+      </c>
+      <c r="AY248">
+        <v>0</v>
+      </c>
+      <c r="AZ248">
+        <v>-27.79709420074764</v>
+      </c>
+      <c r="BA248">
+        <v>27.91538116075785</v>
+      </c>
+      <c r="BB248">
+        <v>0</v>
+      </c>
+      <c r="BC248">
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:55">
@@ -40358,7 +41759,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C249" t="s">
         <v>57</v>
@@ -40414,8 +41815,104 @@
       <c r="T249">
         <v>0.16</v>
       </c>
+      <c r="U249">
+        <v>391.2882456652226</v>
+      </c>
+      <c r="V249">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W249">
+        <v>3755.347643000001</v>
+      </c>
       <c r="X249" t="s">
         <v>329</v>
+      </c>
+      <c r="Y249">
+        <v>391.2882456652226</v>
+      </c>
+      <c r="Z249">
+        <v>373.2882456652226</v>
+      </c>
+      <c r="AA249">
+        <v>18</v>
+      </c>
+      <c r="AB249">
+        <v>18</v>
+      </c>
+      <c r="AC249">
+        <v>438</v>
+      </c>
+      <c r="AD249">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE249">
+        <v>0</v>
+      </c>
+      <c r="AF249">
+        <v>0</v>
+      </c>
+      <c r="AG249">
+        <v>0.1759811366603104</v>
+      </c>
+      <c r="AH249">
+        <v>0.1759811366603104</v>
+      </c>
+      <c r="AI249">
+        <v>0.1678856712458043</v>
+      </c>
+      <c r="AK249">
+        <v>187.9639116790647</v>
+      </c>
+      <c r="AL249">
+        <v>185.3243339861579</v>
+      </c>
+      <c r="AN249">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO249">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP249">
+        <v>545.3034230990072</v>
+      </c>
+      <c r="AQ249">
+        <v>2223.466975443574</v>
+      </c>
+      <c r="AR249">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS249">
+        <v>1521.012977453693</v>
+      </c>
+      <c r="AT249">
+        <v>109.6346343241929</v>
+      </c>
+      <c r="AU249">
+        <v>200.5776094209983</v>
+      </c>
+      <c r="AV249">
+        <v>15.25327543484036</v>
+      </c>
+      <c r="AW249">
+        <v>313.2731861317745</v>
+      </c>
+      <c r="AX249">
+        <v>0</v>
+      </c>
+      <c r="AY249">
+        <v>0</v>
+      </c>
+      <c r="AZ249">
+        <v>-32.22156629714381</v>
+      </c>
+      <c r="BA249">
+        <v>31.79418613177458</v>
+      </c>
+      <c r="BB249">
+        <v>0</v>
+      </c>
+      <c r="BC249">
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:55">
@@ -40423,7 +41920,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C250" t="s">
         <v>57</v>
@@ -40479,8 +41976,104 @@
       <c r="T250">
         <v>0.18</v>
       </c>
+      <c r="U250">
+        <v>393.9321707435575</v>
+      </c>
+      <c r="V250">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W250">
+        <v>3693.675154299999</v>
+      </c>
       <c r="X250" t="s">
         <v>330</v>
+      </c>
+      <c r="Y250">
+        <v>393.9321707435575</v>
+      </c>
+      <c r="Z250">
+        <v>375.9321707435575</v>
+      </c>
+      <c r="AA250">
+        <v>18</v>
+      </c>
+      <c r="AB250">
+        <v>18</v>
+      </c>
+      <c r="AC250">
+        <v>438</v>
+      </c>
+      <c r="AD250">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE250">
+        <v>0</v>
+      </c>
+      <c r="AF250">
+        <v>0</v>
+      </c>
+      <c r="AG250">
+        <v>0.1771702368842108</v>
+      </c>
+      <c r="AH250">
+        <v>0.1771702368842108</v>
+      </c>
+      <c r="AI250">
+        <v>0.1690747714697047</v>
+      </c>
+      <c r="AK250">
+        <v>190.278029983547</v>
+      </c>
+      <c r="AL250">
+        <v>185.6541407600105</v>
+      </c>
+      <c r="AN250">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO250">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP250">
+        <v>545.3034230990064</v>
+      </c>
+      <c r="AQ250">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR250">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS250">
+        <v>1526.57216754146</v>
+      </c>
+      <c r="AT250">
+        <v>115.3799265704103</v>
+      </c>
+      <c r="AU250">
+        <v>201.4994192952471</v>
+      </c>
+      <c r="AV250">
+        <v>15.84527853523658</v>
+      </c>
+      <c r="AW250">
+        <v>317.1300499725784</v>
+      </c>
+      <c r="AX250">
+        <v>0</v>
+      </c>
+      <c r="AY250">
+        <v>0</v>
+      </c>
+      <c r="AZ250">
+        <v>-36.07921896224612</v>
+      </c>
+      <c r="BA250">
+        <v>35.7990477177335</v>
+      </c>
+      <c r="BB250">
+        <v>0</v>
+      </c>
+      <c r="BC250">
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:55">
@@ -40488,7 +42081,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C251" t="s">
         <v>57</v>
@@ -40544,8 +42137,104 @@
       <c r="T251">
         <v>0.2</v>
       </c>
+      <c r="U251">
+        <v>396.257846421108</v>
+      </c>
+      <c r="V251">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W251">
+        <v>3809.315170200003</v>
+      </c>
       <c r="X251" t="s">
         <v>331</v>
+      </c>
+      <c r="Y251">
+        <v>396.257846421108</v>
+      </c>
+      <c r="Z251">
+        <v>378.257846421108</v>
+      </c>
+      <c r="AA251">
+        <v>18</v>
+      </c>
+      <c r="AB251">
+        <v>18</v>
+      </c>
+      <c r="AC251">
+        <v>438</v>
+      </c>
+      <c r="AD251">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE251">
+        <v>0</v>
+      </c>
+      <c r="AF251">
+        <v>0</v>
+      </c>
+      <c r="AG251">
+        <v>0.1782162050515979</v>
+      </c>
+      <c r="AH251">
+        <v>0.1782162050515979</v>
+      </c>
+      <c r="AI251">
+        <v>0.1701207396370918</v>
+      </c>
+      <c r="AK251">
+        <v>191.592726544779</v>
+      </c>
+      <c r="AL251">
+        <v>186.665119876329</v>
+      </c>
+      <c r="AN251">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO251">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP251">
+        <v>545.3034230990066</v>
+      </c>
+      <c r="AQ251">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR251">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS251">
+        <v>1536.524025418003</v>
+      </c>
+      <c r="AT251">
+        <v>125.0067217089602</v>
+      </c>
+      <c r="AU251">
+        <v>204.079713362497</v>
+      </c>
+      <c r="AV251">
+        <v>17.414593486168</v>
+      </c>
+      <c r="AW251">
+        <v>319.3212109079651</v>
+      </c>
+      <c r="AX251">
+        <v>0</v>
+      </c>
+      <c r="AY251">
+        <v>0</v>
+      </c>
+      <c r="AZ251">
+        <v>-41.14728605558854</v>
+      </c>
+      <c r="BA251">
+        <v>40.53374614808813</v>
+      </c>
+      <c r="BB251">
+        <v>0</v>
+      </c>
+      <c r="BC251">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:55">
@@ -40553,7 +42242,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C252" t="s">
         <v>57</v>
@@ -40609,8 +42298,104 @@
       <c r="T252">
         <v>0.25</v>
       </c>
+      <c r="U252">
+        <v>404.8636352703109</v>
+      </c>
+      <c r="V252">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W252">
+        <v>4041.853438100006</v>
+      </c>
       <c r="X252" t="s">
         <v>332</v>
+      </c>
+      <c r="Y252">
+        <v>404.8636352703109</v>
+      </c>
+      <c r="Z252">
+        <v>386.8636352703109</v>
+      </c>
+      <c r="AA252">
+        <v>18</v>
+      </c>
+      <c r="AB252">
+        <v>18</v>
+      </c>
+      <c r="AC252">
+        <v>438</v>
+      </c>
+      <c r="AD252">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE252">
+        <v>0</v>
+      </c>
+      <c r="AF252">
+        <v>0</v>
+      </c>
+      <c r="AG252">
+        <v>0.1820866420512237</v>
+      </c>
+      <c r="AH252">
+        <v>0.1820866420512237</v>
+      </c>
+      <c r="AI252">
+        <v>0.1739911766367176</v>
+      </c>
+      <c r="AK252">
+        <v>198.7468019005091</v>
+      </c>
+      <c r="AL252">
+        <v>188.1168333698018</v>
+      </c>
+      <c r="AN252">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO252">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP252">
+        <v>545.3034230990066</v>
+      </c>
+      <c r="AQ252">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR252">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS252">
+        <v>1549.146518408628</v>
+      </c>
+      <c r="AT252">
+        <v>137.7515864257302</v>
+      </c>
+      <c r="AU252">
+        <v>206.5121659705537</v>
+      </c>
+      <c r="AV252">
+        <v>18.39533260075186</v>
+      </c>
+      <c r="AW252">
+        <v>331.2446698341818</v>
+      </c>
+      <c r="AX252">
+        <v>0</v>
+      </c>
+      <c r="AY252">
+        <v>0</v>
+      </c>
+      <c r="AZ252">
+        <v>-49.48513472613195</v>
+      </c>
+      <c r="BA252">
+        <v>49.76566983418179</v>
+      </c>
+      <c r="BB252">
+        <v>0</v>
+      </c>
+      <c r="BC252">
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:55">
@@ -40618,7 +42403,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C253" t="s">
         <v>57</v>
@@ -40674,16 +42459,112 @@
       <c r="T253">
         <v>0.3</v>
       </c>
+      <c r="U253">
+        <v>412.4296373193648</v>
+      </c>
+      <c r="V253">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W253">
+        <v>4701.364301399997</v>
+      </c>
       <c r="X253" t="s">
         <v>333</v>
+      </c>
+      <c r="Y253">
+        <v>412.4296373193648</v>
+      </c>
+      <c r="Z253">
+        <v>394.4296373193648</v>
+      </c>
+      <c r="AA253">
+        <v>18</v>
+      </c>
+      <c r="AB253">
+        <v>18</v>
+      </c>
+      <c r="AC253">
+        <v>438</v>
+      </c>
+      <c r="AD253">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE253">
+        <v>0</v>
+      </c>
+      <c r="AF253">
+        <v>0</v>
+      </c>
+      <c r="AG253">
+        <v>0.1854894369353459</v>
+      </c>
+      <c r="AH253">
+        <v>0.1854894369353459</v>
+      </c>
+      <c r="AI253">
+        <v>0.1773939715208397</v>
+      </c>
+      <c r="AK253">
+        <v>204.6342091584828</v>
+      </c>
+      <c r="AL253">
+        <v>189.795428160882</v>
+      </c>
+      <c r="AN253">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO253">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP253">
+        <v>545.3034230990067</v>
+      </c>
+      <c r="AQ253">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR253">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS253">
+        <v>1575.432743715366</v>
+      </c>
+      <c r="AT253">
+        <v>163.7049224787929</v>
+      </c>
+      <c r="AU253">
+        <v>211.3988137293097</v>
+      </c>
+      <c r="AV253">
+        <v>21.60338556842767</v>
+      </c>
+      <c r="AW253">
+        <v>341.057015264138</v>
+      </c>
+      <c r="AX253">
+        <v>0</v>
+      </c>
+      <c r="AY253">
+        <v>0</v>
+      </c>
+      <c r="AZ253">
+        <v>-60.6961114822949</v>
+      </c>
+      <c r="BA253">
+        <v>59.87051382047061</v>
+      </c>
+      <c r="BB253">
+        <v>0</v>
+      </c>
+      <c r="BC253">
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:55">
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254">
-        <v>0</v>
+      <c r="B254" t="s">
+        <v>55</v>
       </c>
       <c r="C254" t="s">
         <v>57</v>
@@ -40738,14 +42619,113 @@
       </c>
       <c r="T254">
         <v>0.35</v>
+      </c>
+      <c r="U254">
+        <v>413.8633867753192</v>
+      </c>
+      <c r="V254">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W254">
+        <v>4710.745421</v>
+      </c>
+      <c r="X254" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y254">
+        <v>413.8633867753192</v>
+      </c>
+      <c r="Z254">
+        <v>395.8633867753192</v>
+      </c>
+      <c r="AA254">
+        <v>18</v>
+      </c>
+      <c r="AB254">
+        <v>18</v>
+      </c>
+      <c r="AC254">
+        <v>438</v>
+      </c>
+      <c r="AD254">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE254">
+        <v>0</v>
+      </c>
+      <c r="AF254">
+        <v>0</v>
+      </c>
+      <c r="AG254">
+        <v>0.1861342629983317</v>
+      </c>
+      <c r="AH254">
+        <v>0.1861342629983317</v>
+      </c>
+      <c r="AI254">
+        <v>0.1780387975838256</v>
+      </c>
+      <c r="AK254">
+        <v>204.4513228347317</v>
+      </c>
+      <c r="AL254">
+        <v>191.4120639405875</v>
+      </c>
+      <c r="AN254">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO254">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP254">
+        <v>545.303423099007</v>
+      </c>
+      <c r="AQ254">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR254">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS254">
+        <v>1593.2030711733</v>
+      </c>
+      <c r="AT254">
+        <v>181.7353857012745</v>
+      </c>
+      <c r="AU254">
+        <v>215.3719321245774</v>
+      </c>
+      <c r="AV254">
+        <v>23.95986818398993</v>
+      </c>
+      <c r="AW254">
+        <v>340.7522047245529</v>
+      </c>
+      <c r="AX254">
+        <v>0</v>
+      </c>
+      <c r="AY254">
+        <v>0</v>
+      </c>
+      <c r="AZ254">
+        <v>-68.65809464819324</v>
+      </c>
+      <c r="BA254">
+        <v>67.89112319034386</v>
+      </c>
+      <c r="BB254">
+        <v>0</v>
+      </c>
+      <c r="BC254">
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:55">
       <c r="A255" s="1">
         <v>254</v>
       </c>
-      <c r="B255">
-        <v>0</v>
+      <c r="B255" t="s">
+        <v>55</v>
       </c>
       <c r="C255" t="s">
         <v>57</v>
@@ -40800,6 +42780,105 @@
       </c>
       <c r="T255">
         <v>0.4</v>
+      </c>
+      <c r="U255">
+        <v>426.3918976378764</v>
+      </c>
+      <c r="V255">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W255">
+        <v>4808.4176009</v>
+      </c>
+      <c r="X255" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y255">
+        <v>426.3918976378764</v>
+      </c>
+      <c r="Z255">
+        <v>408.3918976378764</v>
+      </c>
+      <c r="AA255">
+        <v>18</v>
+      </c>
+      <c r="AB255">
+        <v>18</v>
+      </c>
+      <c r="AC255">
+        <v>438</v>
+      </c>
+      <c r="AD255">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE255">
+        <v>0</v>
+      </c>
+      <c r="AF255">
+        <v>0</v>
+      </c>
+      <c r="AG255">
+        <v>0.1917689366862815</v>
+      </c>
+      <c r="AH255">
+        <v>0.1917689366862815</v>
+      </c>
+      <c r="AI255">
+        <v>0.1836734712717754</v>
+      </c>
+      <c r="AK255">
+        <v>215.0665713621288</v>
+      </c>
+      <c r="AL255">
+        <v>193.3253262757476</v>
+      </c>
+      <c r="AN255">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO255">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP255">
+        <v>545.303423099007</v>
+      </c>
+      <c r="AQ255">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR255">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS255">
+        <v>1618.870780018147</v>
+      </c>
+      <c r="AT255">
+        <v>207.4745010582208</v>
+      </c>
+      <c r="AU255">
+        <v>220.4701432937686</v>
+      </c>
+      <c r="AV255">
+        <v>27.14481701802107</v>
+      </c>
+      <c r="AW255">
+        <v>358.444285603548</v>
+      </c>
+      <c r="AX255">
+        <v>0</v>
+      </c>
+      <c r="AY255">
+        <v>0</v>
+      </c>
+      <c r="AZ255">
+        <v>-76.9327629696871</v>
+      </c>
+      <c r="BA255">
+        <v>80.87170163526046</v>
+      </c>
+      <c r="BB255">
+        <v>0</v>
+      </c>
+      <c r="BC255">
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:55">
@@ -40867,7 +42946,7 @@
         <v>3260.896692800001</v>
       </c>
       <c r="X256" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Y256">
         <v>297.3758306389827</v>
@@ -41022,7 +43101,7 @@
         <v>1772.456286500001</v>
       </c>
       <c r="X257" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Y257">
         <v>373.1642128626362</v>
@@ -41183,7 +43262,7 @@
         <v>1111.954598</v>
       </c>
       <c r="X258" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Y258">
         <v>279.9773268626475</v>
@@ -41344,7 +43423,7 @@
         <v>3434.7595483</v>
       </c>
       <c r="X259" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Y259">
         <v>302.36301593681</v>
@@ -41505,7 +43584,7 @@
         <v>3590.106413199999</v>
       </c>
       <c r="X260" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Y260">
         <v>324.3542974126378</v>
@@ -41666,7 +43745,7 @@
         <v>3706.612303899998</v>
       </c>
       <c r="X261" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y261">
         <v>353.2491617850422</v>
@@ -41827,7 +43906,7 @@
         <v>3497.372530699999</v>
       </c>
       <c r="X262" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Y262">
         <v>357.2255163994241</v>
@@ -41988,7 +44067,7 @@
         <v>3791.2025689</v>
       </c>
       <c r="X263" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Y263">
         <v>357.6772014506519</v>
@@ -42149,7 +44228,7 @@
         <v>3931.351135100002</v>
       </c>
       <c r="X264" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y264">
         <v>358.5813360586071</v>
@@ -42310,7 +44389,7 @@
         <v>3831.185864700001</v>
       </c>
       <c r="X265" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Y265">
         <v>361.0000120204564</v>
@@ -42471,7 +44550,7 @@
         <v>3962.812718400004</v>
       </c>
       <c r="X266" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Y266">
         <v>362.2493693540775</v>
@@ -42632,7 +44711,7 @@
         <v>4053.3651302</v>
       </c>
       <c r="X267" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Y267">
         <v>366.0487786335788</v>
@@ -42793,7 +44872,7 @@
         <v>4376.078476299997</v>
       </c>
       <c r="X268" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Y268">
         <v>367.7486837771044</v>
@@ -42954,7 +45033,7 @@
         <v>4141.142306899997</v>
       </c>
       <c r="X269" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Y269">
         <v>370.8066187526734</v>
@@ -43115,7 +45194,7 @@
         <v>4053.414744000002</v>
       </c>
       <c r="X270" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Y270">
         <v>382.1443098608307</v>
@@ -43276,7 +45355,7 @@
         <v>4076.083553600001</v>
       </c>
       <c r="X271" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Y271">
         <v>376.3100530596907</v>
@@ -43437,7 +45516,7 @@
         <v>4171.809305700001</v>
       </c>
       <c r="X272" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y272">
         <v>380.554793066971</v>
@@ -43598,7 +45677,7 @@
         <v>4151.585550299998</v>
       </c>
       <c r="X273" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Y273">
         <v>398.0943357782531</v>
@@ -43759,7 +45838,7 @@
         <v>4160.7821635</v>
       </c>
       <c r="X274" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Y274">
         <v>400.0715058682846</v>
@@ -43920,7 +45999,7 @@
         <v>4092.053152799999</v>
       </c>
       <c r="X275" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Y275">
         <v>396.3247065683003</v>
@@ -44081,7 +46160,7 @@
         <v>4061.439874799999</v>
       </c>
       <c r="X276" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y276">
         <v>423.9853642932791</v>
@@ -44242,7 +46321,7 @@
         <v>3857.397564600004</v>
       </c>
       <c r="X277" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Y277">
         <v>421.2278250035797</v>
@@ -44403,7 +46482,7 @@
         <v>3647.801388499996</v>
       </c>
       <c r="X278" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Y278">
         <v>444.8924039953689</v>
@@ -44564,7 +46643,7 @@
         <v>3564.343818499998</v>
       </c>
       <c r="X279" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Y279">
         <v>279.8487550352572</v>
@@ -44725,7 +46804,7 @@
         <v>3565.055426999999</v>
       </c>
       <c r="X280" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y280">
         <v>279.8236762002394</v>
@@ -44886,7 +46965,7 @@
         <v>3507.255287800006</v>
       </c>
       <c r="X281" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Y281">
         <v>280.2429141738552</v>
@@ -45047,7 +47126,7 @@
         <v>3657.162870399996</v>
       </c>
       <c r="X282" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Y282">
         <v>280.1495809211579</v>
@@ -45208,7 +47287,7 @@
         <v>3496.968614799996</v>
       </c>
       <c r="X283" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Y283">
         <v>281.3392354474776</v>
@@ -45369,7 +47448,7 @@
         <v>3561.703120300001</v>
       </c>
       <c r="X284" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Y284">
         <v>281.8381744355926</v>
@@ -45530,7 +47609,7 @@
         <v>3594.830778100004</v>
       </c>
       <c r="X285" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Y285">
         <v>282.3719760094235</v>
@@ -45691,7 +47770,7 @@
         <v>3587.6144594</v>
       </c>
       <c r="X286" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Y286">
         <v>282.5059017588508</v>
@@ -45852,7 +47931,7 @@
         <v>3563.320913400006</v>
       </c>
       <c r="X287" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Y287">
         <v>284.2662173492292</v>
@@ -46013,7 +48092,7 @@
         <v>3549.3334846</v>
       </c>
       <c r="X288" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Y288">
         <v>283.8168938024434</v>
@@ -46174,7 +48253,7 @@
         <v>3460.018905100005</v>
       </c>
       <c r="X289" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Y289">
         <v>284.4945759664525</v>
@@ -46335,7 +48414,7 @@
         <v>3427.668476599996</v>
       </c>
       <c r="X290" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y290">
         <v>286.5224310434808</v>
@@ -46496,7 +48575,7 @@
         <v>3431.2084101</v>
       </c>
       <c r="X291" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Y291">
         <v>285.9909185297572</v>
@@ -46657,7 +48736,7 @@
         <v>3514.865468200005</v>
       </c>
       <c r="X292" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Y292">
         <v>287.0564497033304</v>
@@ -46818,7 +48897,7 @@
         <v>3427.266387800002</v>
       </c>
       <c r="X293" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Y293">
         <v>288.1717053987779</v>
@@ -46979,7 +49058,7 @@
         <v>3665.465382399998</v>
       </c>
       <c r="X294" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Y294">
         <v>287.3715940926255</v>
@@ -47140,7 +49219,7 @@
         <v>3574.081401399999</v>
       </c>
       <c r="X295" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Y295">
         <v>288.3909427605348</v>
@@ -47301,7 +49380,7 @@
         <v>4065.509183299997</v>
       </c>
       <c r="X296" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Y296">
         <v>293.7691068216516</v>
@@ -47462,7 +49541,7 @@
         <v>4180.256081599997</v>
       </c>
       <c r="X297" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Y297">
         <v>299.0403053142875</v>
@@ -47623,7 +49702,7 @@
         <v>4160.576936899997</v>
       </c>
       <c r="X298" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Y298">
         <v>300.2297380627662</v>
@@ -47784,7 +49863,7 @@
         <v>4293.253932599997</v>
       </c>
       <c r="X299" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Y299">
         <v>301.1048939370589</v>
@@ -47945,7 +50024,7 @@
         <v>4301.536726800005</v>
       </c>
       <c r="X300" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Y300">
         <v>279.343297554816</v>
@@ -48106,7 +50185,7 @@
         <v>4132.763662999998</v>
       </c>
       <c r="X301" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Y301">
         <v>308.8514480339179</v>
@@ -48267,7 +50346,7 @@
         <v>4167.163992100002</v>
       </c>
       <c r="X302" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Y302">
         <v>335.2956749532441</v>
@@ -48428,7 +50507,7 @@
         <v>4138.361201300002</v>
       </c>
       <c r="X303" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Y303">
         <v>353.7257672031135</v>
@@ -48589,7 +50668,7 @@
         <v>4194.083657999996</v>
       </c>
       <c r="X304" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Y304">
         <v>354.7095662669275</v>
@@ -48750,7 +50829,7 @@
         <v>4087.885440799997</v>
       </c>
       <c r="X305" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y305">
         <v>355.8477414148708</v>
@@ -48911,7 +50990,7 @@
         <v>4021.9434741</v>
       </c>
       <c r="X306" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Y306">
         <v>357.3850411859781</v>
@@ -49072,7 +51151,7 @@
         <v>4199.886429600003</v>
       </c>
       <c r="X307" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Y307">
         <v>358.1338624701394</v>
@@ -49233,7 +51312,7 @@
         <v>3811.6991739</v>
       </c>
       <c r="X308" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Y308">
         <v>359.6874179512617</v>
@@ -49394,7 +51473,7 @@
         <v>3774.003357399997</v>
       </c>
       <c r="X309" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Y309">
         <v>361.300815960261</v>
@@ -49555,7 +51634,7 @@
         <v>3793.315032900005</v>
       </c>
       <c r="X310" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Y310">
         <v>362.790924447736</v>
@@ -49716,7 +51795,7 @@
         <v>3728.078664000001</v>
       </c>
       <c r="X311" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Y311">
         <v>363.9683336784677</v>
@@ -49877,7 +51956,7 @@
         <v>3695.835610800001</v>
       </c>
       <c r="X312" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Y312">
         <v>366.663844229569</v>
@@ -50038,7 +52117,7 @@
         <v>3417.081424399999</v>
       </c>
       <c r="X313" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Y313">
         <v>369.0515925107616</v>
@@ -50199,7 +52278,7 @@
         <v>3667.896444899998</v>
       </c>
       <c r="X314" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y314">
         <v>372.0308490864082</v>
@@ -50360,7 +52439,7 @@
         <v>3722.6616049</v>
       </c>
       <c r="X315" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Y315">
         <v>376.1326343658753</v>
@@ -50521,7 +52600,7 @@
         <v>3823.850434700005</v>
       </c>
       <c r="X316" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Y316">
         <v>378.3275554133084</v>
@@ -50682,7 +52761,7 @@
         <v>3278.033739800005</v>
       </c>
       <c r="X317" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Y317">
         <v>386.0764401701334</v>
@@ -50843,7 +52922,7 @@
         <v>3822.800422</v>
       </c>
       <c r="X318" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Y318">
         <v>392.3898191123507</v>
@@ -51004,7 +53083,7 @@
         <v>3933.710366500003</v>
       </c>
       <c r="X319" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Y319">
         <v>399.7227804464707</v>
@@ -51165,7 +53244,7 @@
         <v>3888.116455700001</v>
       </c>
       <c r="X320" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Y320">
         <v>399.0495758876489</v>
@@ -51255,12 +53334,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:20">
+    <row r="321" spans="1:55">
       <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="B321">
-        <v>0</v>
+      <c r="B321" t="s">
+        <v>55</v>
       </c>
       <c r="C321" t="s">
         <v>57</v>
@@ -51316,13 +53395,112 @@
       <c r="T321">
         <v>0.001</v>
       </c>
+      <c r="U321">
+        <v>279.6593399951211</v>
+      </c>
+      <c r="V321">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W321">
+        <v>4897.557518499998</v>
+      </c>
+      <c r="X321" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y321">
+        <v>279.6593399951211</v>
+      </c>
+      <c r="Z321">
+        <v>261.6593399951211</v>
+      </c>
+      <c r="AA321">
+        <v>18</v>
+      </c>
+      <c r="AB321">
+        <v>18</v>
+      </c>
+      <c r="AC321">
+        <v>438</v>
+      </c>
+      <c r="AD321">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE321">
+        <v>0</v>
+      </c>
+      <c r="AF321">
+        <v>0</v>
+      </c>
+      <c r="AG321">
+        <v>0.1250893285077759</v>
+      </c>
+      <c r="AH321">
+        <v>0.1250893285077759</v>
+      </c>
+      <c r="AI321">
+        <v>0.1170380761763528</v>
+      </c>
+      <c r="AK321">
+        <v>90.8010063895468</v>
+      </c>
+      <c r="AL321">
+        <v>170.8583336055743</v>
+      </c>
+      <c r="AN321">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO321">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP321">
+        <v>594.766493467828</v>
+      </c>
+      <c r="AQ321">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR321">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS321">
+        <v>1293.462304952654</v>
+      </c>
+      <c r="AT321">
+        <v>20.88392250043469</v>
+      </c>
+      <c r="AU321">
+        <v>174.5275501889861</v>
+      </c>
+      <c r="AV321">
+        <v>3.669216583411809</v>
+      </c>
+      <c r="AW321">
+        <v>151.3350106492447</v>
+      </c>
+      <c r="AX321">
+        <v>0</v>
+      </c>
+      <c r="AY321">
+        <v>0</v>
+      </c>
+      <c r="AZ321">
+        <v>0</v>
+      </c>
+      <c r="BA321">
+        <v>0.3696637128045808</v>
+      </c>
+      <c r="BB321">
+        <v>0</v>
+      </c>
+      <c r="BC321">
+        <v>0</v>
+      </c>
     </row>
-    <row r="322" spans="1:20">
+    <row r="322" spans="1:55">
       <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="B322">
-        <v>0</v>
+      <c r="B322" t="s">
+        <v>55</v>
       </c>
       <c r="C322" t="s">
         <v>57</v>
@@ -51378,13 +53556,112 @@
       <c r="T322">
         <v>0.005</v>
       </c>
+      <c r="U322">
+        <v>312.5912271366659</v>
+      </c>
+      <c r="V322">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W322">
+        <v>4873.299710799998</v>
+      </c>
+      <c r="X322" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y322">
+        <v>312.5912271366659</v>
+      </c>
+      <c r="Z322">
+        <v>294.5912271366659</v>
+      </c>
+      <c r="AA322">
+        <v>18</v>
+      </c>
+      <c r="AB322">
+        <v>18</v>
+      </c>
+      <c r="AC322">
+        <v>438</v>
+      </c>
+      <c r="AD322">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE322">
+        <v>0</v>
+      </c>
+      <c r="AF322">
+        <v>0</v>
+      </c>
+      <c r="AG322">
+        <v>0.1398194914592495</v>
+      </c>
+      <c r="AH322">
+        <v>0.1398194914592495</v>
+      </c>
+      <c r="AI322">
+        <v>0.1317682391278264</v>
+      </c>
+      <c r="AK322">
+        <v>128.2235551481064</v>
+      </c>
+      <c r="AL322">
+        <v>166.3676719885595</v>
+      </c>
+      <c r="AN322">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO322">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP322">
+        <v>594.7664934678277</v>
+      </c>
+      <c r="AQ322">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR322">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS322">
+        <v>1296.729852498192</v>
+      </c>
+      <c r="AT322">
+        <v>22.75513192306387</v>
+      </c>
+      <c r="AU322">
+        <v>170.36336790581</v>
+      </c>
+      <c r="AV322">
+        <v>3.995695917250519</v>
+      </c>
+      <c r="AW322">
+        <v>213.7059252468439</v>
+      </c>
+      <c r="AX322">
+        <v>0</v>
+      </c>
+      <c r="AY322">
+        <v>0</v>
+      </c>
+      <c r="AZ322">
+        <v>0</v>
+      </c>
+      <c r="BA322">
+        <v>2.025023133000019</v>
+      </c>
+      <c r="BB322">
+        <v>0</v>
+      </c>
+      <c r="BC322">
+        <v>0</v>
+      </c>
     </row>
-    <row r="323" spans="1:20">
+    <row r="323" spans="1:55">
       <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="B323">
-        <v>0</v>
+      <c r="B323" t="s">
+        <v>55</v>
       </c>
       <c r="C323" t="s">
         <v>57</v>
@@ -51440,13 +53717,112 @@
       <c r="T323">
         <v>0.01</v>
       </c>
+      <c r="U323">
+        <v>341.4127951763417</v>
+      </c>
+      <c r="V323">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W323">
+        <v>4868.209940200002</v>
+      </c>
+      <c r="X323" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y323">
+        <v>341.4127951763417</v>
+      </c>
+      <c r="Z323">
+        <v>323.4127951763417</v>
+      </c>
+      <c r="AA323">
+        <v>18</v>
+      </c>
+      <c r="AB323">
+        <v>18</v>
+      </c>
+      <c r="AC323">
+        <v>438</v>
+      </c>
+      <c r="AD323">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE323">
+        <v>0</v>
+      </c>
+      <c r="AF323">
+        <v>0</v>
+      </c>
+      <c r="AG323">
+        <v>0.1527111423967334</v>
+      </c>
+      <c r="AH323">
+        <v>0.1527111423967334</v>
+      </c>
+      <c r="AI323">
+        <v>0.1446598900653103</v>
+      </c>
+      <c r="AK323">
+        <v>158.4555866179254</v>
+      </c>
+      <c r="AL323">
+        <v>164.9572085584162</v>
+      </c>
+      <c r="AN323">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO323">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP323">
+        <v>594.7664934678272</v>
+      </c>
+      <c r="AQ323">
+        <v>2235.677042408431</v>
+      </c>
+      <c r="AR323">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS323">
+        <v>1299.094706522678</v>
+      </c>
+      <c r="AT323">
+        <v>23.93731408718034</v>
+      </c>
+      <c r="AU323">
+        <v>169.1559533344524</v>
+      </c>
+      <c r="AV323">
+        <v>4.198744776036245</v>
+      </c>
+      <c r="AW323">
+        <v>264.0926443632091</v>
+      </c>
+      <c r="AX323">
+        <v>0</v>
+      </c>
+      <c r="AY323">
+        <v>0</v>
+      </c>
+      <c r="AZ323">
+        <v>0</v>
+      </c>
+      <c r="BA323">
+        <v>3.510321328846544</v>
+      </c>
+      <c r="BB323">
+        <v>0</v>
+      </c>
+      <c r="BC323">
+        <v>0</v>
+      </c>
     </row>
-    <row r="324" spans="1:20">
+    <row r="324" spans="1:55">
       <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="B324">
-        <v>0</v>
+      <c r="B324" t="s">
+        <v>55</v>
       </c>
       <c r="C324" t="s">
         <v>57</v>
@@ -51502,13 +53878,112 @@
       <c r="T324">
         <v>0.02</v>
       </c>
+      <c r="U324">
+        <v>355.6232538614603</v>
+      </c>
+      <c r="V324">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W324">
+        <v>4879.968526200006</v>
+      </c>
+      <c r="X324" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y324">
+        <v>355.6232538614603</v>
+      </c>
+      <c r="Z324">
+        <v>337.6232538614603</v>
+      </c>
+      <c r="AA324">
+        <v>18</v>
+      </c>
+      <c r="AB324">
+        <v>18</v>
+      </c>
+      <c r="AC324">
+        <v>438</v>
+      </c>
+      <c r="AD324">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE324">
+        <v>0</v>
+      </c>
+      <c r="AF324">
+        <v>0</v>
+      </c>
+      <c r="AG324">
+        <v>0.1590673639866863</v>
+      </c>
+      <c r="AH324">
+        <v>0.1590673639866863</v>
+      </c>
+      <c r="AI324">
+        <v>0.1510161116552632</v>
+      </c>
+      <c r="AK324">
+        <v>173.221387978307</v>
+      </c>
+      <c r="AL324">
+        <v>164.4018658831534</v>
+      </c>
+      <c r="AN324">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO324">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP324">
+        <v>594.7664934678281</v>
+      </c>
+      <c r="AQ324">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR324">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS324">
+        <v>1302.230651835743</v>
+      </c>
+      <c r="AT324">
+        <v>26.56965574589425</v>
+      </c>
+      <c r="AU324">
+        <v>169.0433780095032</v>
+      </c>
+      <c r="AV324">
+        <v>4.641512126349797</v>
+      </c>
+      <c r="AW324">
+        <v>288.7023132971783</v>
+      </c>
+      <c r="AX324">
+        <v>0</v>
+      </c>
+      <c r="AY324">
+        <v>0</v>
+      </c>
+      <c r="AZ324">
+        <v>0</v>
+      </c>
+      <c r="BA324">
+        <v>7.698532626201256</v>
+      </c>
+      <c r="BB324">
+        <v>0</v>
+      </c>
+      <c r="BC324">
+        <v>0</v>
+      </c>
     </row>
-    <row r="325" spans="1:20">
+    <row r="325" spans="1:55">
       <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="B325">
-        <v>0</v>
+      <c r="B325" t="s">
+        <v>55</v>
       </c>
       <c r="C325" t="s">
         <v>57</v>
@@ -51564,13 +54039,112 @@
       <c r="T325">
         <v>0.03</v>
       </c>
+      <c r="U325">
+        <v>356.6640945303601</v>
+      </c>
+      <c r="V325">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W325">
+        <v>4877.548112800003</v>
+      </c>
+      <c r="X325" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y325">
+        <v>356.6640945303601</v>
+      </c>
+      <c r="Z325">
+        <v>338.6640945303601</v>
+      </c>
+      <c r="AA325">
+        <v>18</v>
+      </c>
+      <c r="AB325">
+        <v>18</v>
+      </c>
+      <c r="AC325">
+        <v>438</v>
+      </c>
+      <c r="AD325">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE325">
+        <v>0</v>
+      </c>
+      <c r="AF325">
+        <v>0</v>
+      </c>
+      <c r="AG325">
+        <v>0.1595329234790262</v>
+      </c>
+      <c r="AH325">
+        <v>0.1595329234790262</v>
+      </c>
+      <c r="AI325">
+        <v>0.1514816711476031</v>
+      </c>
+      <c r="AK325">
+        <v>174.337181949521</v>
+      </c>
+      <c r="AL325">
+        <v>164.3269125808391</v>
+      </c>
+      <c r="AN325">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO325">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP325">
+        <v>594.7664934678285</v>
+      </c>
+      <c r="AQ325">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR325">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS325">
+        <v>1307.367184242776</v>
+      </c>
+      <c r="AT325">
+        <v>31.38004741107288</v>
+      </c>
+      <c r="AU325">
+        <v>169.8040076822814</v>
+      </c>
+      <c r="AV325">
+        <v>5.477095101442337</v>
+      </c>
+      <c r="AW325">
+        <v>290.5619699158684</v>
+      </c>
+      <c r="AX325">
+        <v>0</v>
+      </c>
+      <c r="AY325">
+        <v>0</v>
+      </c>
+      <c r="AZ325">
+        <v>0</v>
+      </c>
+      <c r="BA325">
+        <v>9.573984393250626</v>
+      </c>
+      <c r="BB325">
+        <v>0</v>
+      </c>
+      <c r="BC325">
+        <v>0</v>
+      </c>
     </row>
-    <row r="326" spans="1:20">
+    <row r="326" spans="1:55">
       <c r="A326" s="1">
         <v>325</v>
       </c>
-      <c r="B326">
-        <v>0</v>
+      <c r="B326" t="s">
+        <v>55</v>
       </c>
       <c r="C326" t="s">
         <v>57</v>
@@ -51626,13 +54200,112 @@
       <c r="T326">
         <v>0.04</v>
       </c>
+      <c r="U326">
+        <v>359.2186541308297</v>
+      </c>
+      <c r="V326">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W326">
+        <v>4647.367247599999</v>
+      </c>
+      <c r="X326" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y326">
+        <v>359.2186541308297</v>
+      </c>
+      <c r="Z326">
+        <v>341.2186541308297</v>
+      </c>
+      <c r="AA326">
+        <v>18</v>
+      </c>
+      <c r="AB326">
+        <v>18</v>
+      </c>
+      <c r="AC326">
+        <v>438</v>
+      </c>
+      <c r="AD326">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE326">
+        <v>0</v>
+      </c>
+      <c r="AF326">
+        <v>0</v>
+      </c>
+      <c r="AG326">
+        <v>0.1606755570311951</v>
+      </c>
+      <c r="AH326">
+        <v>0.1606755570311951</v>
+      </c>
+      <c r="AI326">
+        <v>0.152624304699772</v>
+      </c>
+      <c r="AK326">
+        <v>176.7949244613345</v>
+      </c>
+      <c r="AL326">
+        <v>164.4237296694952</v>
+      </c>
+      <c r="AN326">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO326">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP326">
+        <v>594.7664934678281</v>
+      </c>
+      <c r="AQ326">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR326">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS326">
+        <v>1310.76772553484</v>
+      </c>
+      <c r="AT326">
+        <v>34.73113009458429</v>
+      </c>
+      <c r="AU326">
+        <v>170.4652155175633</v>
+      </c>
+      <c r="AV326">
+        <v>6.041485848068074</v>
+      </c>
+      <c r="AW326">
+        <v>294.6582074355575</v>
+      </c>
+      <c r="AX326">
+        <v>0</v>
+      </c>
+      <c r="AY326">
+        <v>0</v>
+      </c>
+      <c r="AZ326">
+        <v>0</v>
+      </c>
+      <c r="BA326">
+        <v>14.47004256599242</v>
+      </c>
+      <c r="BB326">
+        <v>0</v>
+      </c>
+      <c r="BC326">
+        <v>0</v>
+      </c>
     </row>
-    <row r="327" spans="1:20">
+    <row r="327" spans="1:55">
       <c r="A327" s="1">
         <v>326</v>
       </c>
-      <c r="B327">
-        <v>0</v>
+      <c r="B327" t="s">
+        <v>55</v>
       </c>
       <c r="C327" t="s">
         <v>57</v>
@@ -51688,13 +54361,112 @@
       <c r="T327">
         <v>0.05</v>
       </c>
+      <c r="U327">
+        <v>359.1866015823282</v>
+      </c>
+      <c r="V327">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W327">
+        <v>4449.083220499997</v>
+      </c>
+      <c r="X327" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y327">
+        <v>359.1866015823282</v>
+      </c>
+      <c r="Z327">
+        <v>341.1866015823282</v>
+      </c>
+      <c r="AA327">
+        <v>18</v>
+      </c>
+      <c r="AB327">
+        <v>18</v>
+      </c>
+      <c r="AC327">
+        <v>438</v>
+      </c>
+      <c r="AD327">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE327">
+        <v>0</v>
+      </c>
+      <c r="AF327">
+        <v>0</v>
+      </c>
+      <c r="AG327">
+        <v>0.1606612201892034</v>
+      </c>
+      <c r="AH327">
+        <v>0.1606612201892034</v>
+      </c>
+      <c r="AI327">
+        <v>0.1526099678577803</v>
+      </c>
+      <c r="AK327">
+        <v>176.504599498207</v>
+      </c>
+      <c r="AL327">
+        <v>164.6820020841212</v>
+      </c>
+      <c r="AN327">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO327">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP327">
+        <v>594.7664934678281</v>
+      </c>
+      <c r="AQ327">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR327">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS327">
+        <v>1315.545655442744</v>
+      </c>
+      <c r="AT327">
+        <v>39.38158041670578</v>
+      </c>
+      <c r="AU327">
+        <v>171.5003831348965</v>
+      </c>
+      <c r="AV327">
+        <v>6.81838105077531</v>
+      </c>
+      <c r="AW327">
+        <v>294.1743324970117</v>
+      </c>
+      <c r="AX327">
+        <v>0</v>
+      </c>
+      <c r="AY327">
+        <v>0</v>
+      </c>
+      <c r="AZ327">
+        <v>0</v>
+      </c>
+      <c r="BA327">
+        <v>19.60631731061648</v>
+      </c>
+      <c r="BB327">
+        <v>0</v>
+      </c>
+      <c r="BC327">
+        <v>0</v>
+      </c>
     </row>
-    <row r="328" spans="1:20">
+    <row r="328" spans="1:55">
       <c r="A328" s="1">
         <v>327</v>
       </c>
-      <c r="B328">
-        <v>0</v>
+      <c r="B328" t="s">
+        <v>55</v>
       </c>
       <c r="C328" t="s">
         <v>57</v>
@@ -51750,13 +54522,112 @@
       <c r="T328">
         <v>0.06</v>
       </c>
+      <c r="U328">
+        <v>368.9825593151452</v>
+      </c>
+      <c r="V328">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W328">
+        <v>4664.127832600003</v>
+      </c>
+      <c r="X328" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y328">
+        <v>368.9825593151452</v>
+      </c>
+      <c r="Z328">
+        <v>350.9825593151452</v>
+      </c>
+      <c r="AA328">
+        <v>18</v>
+      </c>
+      <c r="AB328">
+        <v>18</v>
+      </c>
+      <c r="AC328">
+        <v>438</v>
+      </c>
+      <c r="AD328">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE328">
+        <v>0</v>
+      </c>
+      <c r="AF328">
+        <v>0</v>
+      </c>
+      <c r="AG328">
+        <v>0.1650428717189182</v>
+      </c>
+      <c r="AH328">
+        <v>0.1650428717189182</v>
+      </c>
+      <c r="AI328">
+        <v>0.1569916193874951</v>
+      </c>
+      <c r="AK328">
+        <v>185.9953367099105</v>
+      </c>
+      <c r="AL328">
+        <v>164.9872226052348</v>
+      </c>
+      <c r="AN328">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO328">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP328">
+        <v>594.766493467828</v>
+      </c>
+      <c r="AQ328">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR328">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS328">
+        <v>1318.694840371118</v>
+      </c>
+      <c r="AT328">
+        <v>42.48793393961476</v>
+      </c>
+      <c r="AU328">
+        <v>172.3342968443729</v>
+      </c>
+      <c r="AV328">
+        <v>7.347074239138104</v>
+      </c>
+      <c r="AW328">
+        <v>309.9922278498508</v>
+      </c>
+      <c r="AX328">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AY328">
+        <v>6.023546448786179E-16</v>
+      </c>
+      <c r="AZ328">
+        <v>0</v>
+      </c>
+      <c r="BA328">
+        <v>28.51322784985081</v>
+      </c>
+      <c r="BB328">
+        <v>0</v>
+      </c>
+      <c r="BC328">
+        <v>0</v>
+      </c>
     </row>
-    <row r="329" spans="1:20">
+    <row r="329" spans="1:55">
       <c r="A329" s="1">
         <v>328</v>
       </c>
-      <c r="B329">
-        <v>0</v>
+      <c r="B329" t="s">
+        <v>55</v>
       </c>
       <c r="C329" t="s">
         <v>57</v>
@@ -51812,13 +54683,112 @@
       <c r="T329">
         <v>0.07000000000000001</v>
       </c>
+      <c r="U329">
+        <v>365.1752150470451</v>
+      </c>
+      <c r="V329">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W329">
+        <v>4470.403717300003</v>
+      </c>
+      <c r="X329" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y329">
+        <v>365.1752150470451</v>
+      </c>
+      <c r="Z329">
+        <v>347.1752150470451</v>
+      </c>
+      <c r="AA329">
+        <v>18</v>
+      </c>
+      <c r="AB329">
+        <v>18</v>
+      </c>
+      <c r="AC329">
+        <v>438</v>
+      </c>
+      <c r="AD329">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE329">
+        <v>0</v>
+      </c>
+      <c r="AF329">
+        <v>0</v>
+      </c>
+      <c r="AG329">
+        <v>0.1633398778625253</v>
+      </c>
+      <c r="AH329">
+        <v>0.1633398778625253</v>
+      </c>
+      <c r="AI329">
+        <v>0.1552886255311021</v>
+      </c>
+      <c r="AK329">
+        <v>182.0072612746132</v>
+      </c>
+      <c r="AL329">
+        <v>165.1679537724318</v>
+      </c>
+      <c r="AN329">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO329">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP329">
+        <v>594.7664934678287</v>
+      </c>
+      <c r="AQ329">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR329">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS329">
+        <v>1321.569232100179</v>
+      </c>
+      <c r="AT329">
+        <v>45.35792379135262</v>
+      </c>
+      <c r="AU329">
+        <v>172.9927488175527</v>
+      </c>
+      <c r="AV329">
+        <v>7.824795045120865</v>
+      </c>
+      <c r="AW329">
+        <v>303.3454354576887</v>
+      </c>
+      <c r="AX329">
+        <v>0</v>
+      </c>
+      <c r="AY329">
+        <v>0</v>
+      </c>
+      <c r="AZ329">
+        <v>0</v>
+      </c>
+      <c r="BA329">
+        <v>22.92797915472757</v>
+      </c>
+      <c r="BB329">
+        <v>0</v>
+      </c>
+      <c r="BC329">
+        <v>0</v>
+      </c>
     </row>
-    <row r="330" spans="1:20">
+    <row r="330" spans="1:55">
       <c r="A330" s="1">
         <v>329</v>
       </c>
-      <c r="B330">
-        <v>0</v>
+      <c r="B330" t="s">
+        <v>55</v>
       </c>
       <c r="C330" t="s">
         <v>57</v>
@@ -51874,13 +54844,112 @@
       <c r="T330">
         <v>0.08</v>
       </c>
+      <c r="U330">
+        <v>364.4040246374991</v>
+      </c>
+      <c r="V330">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W330">
+        <v>3877.171847900005</v>
+      </c>
+      <c r="X330" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y330">
+        <v>364.4040246374991</v>
+      </c>
+      <c r="Z330">
+        <v>346.4040246374991</v>
+      </c>
+      <c r="AA330">
+        <v>18</v>
+      </c>
+      <c r="AB330">
+        <v>18</v>
+      </c>
+      <c r="AC330">
+        <v>438</v>
+      </c>
+      <c r="AD330">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE330">
+        <v>0</v>
+      </c>
+      <c r="AF330">
+        <v>0</v>
+      </c>
+      <c r="AG330">
+        <v>0.1629949307190348</v>
+      </c>
+      <c r="AH330">
+        <v>0.1629949307190348</v>
+      </c>
+      <c r="AI330">
+        <v>0.1549436783876117</v>
+      </c>
+      <c r="AK330">
+        <v>181.01763996342</v>
+      </c>
+      <c r="AL330">
+        <v>165.3863846740791</v>
+      </c>
+      <c r="AN330">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO330">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP330">
+        <v>594.7664934678284</v>
+      </c>
+      <c r="AQ330">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR330">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS330">
+        <v>1323.392699112484</v>
+      </c>
+      <c r="AT330">
+        <v>47.26075528247731</v>
+      </c>
+      <c r="AU330">
+        <v>173.6007657436708</v>
+      </c>
+      <c r="AV330">
+        <v>8.214381069591678</v>
+      </c>
+      <c r="AW330">
+        <v>301.6960666057</v>
+      </c>
+      <c r="AX330">
+        <v>0</v>
+      </c>
+      <c r="AY330">
+        <v>0</v>
+      </c>
+      <c r="AZ330">
+        <v>0</v>
+      </c>
+      <c r="BA330">
+        <v>27.40040143883681</v>
+      </c>
+      <c r="BB330">
+        <v>0</v>
+      </c>
+      <c r="BC330">
+        <v>0</v>
+      </c>
     </row>
-    <row r="331" spans="1:20">
+    <row r="331" spans="1:55">
       <c r="A331" s="1">
         <v>330</v>
       </c>
-      <c r="B331">
-        <v>0</v>
+      <c r="B331" t="s">
+        <v>55</v>
       </c>
       <c r="C331" t="s">
         <v>57</v>
@@ -51936,13 +55005,112 @@
       <c r="T331">
         <v>0.09</v>
       </c>
+      <c r="U331">
+        <v>374.5854012480125</v>
+      </c>
+      <c r="V331">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W331">
+        <v>3831.328775600006</v>
+      </c>
+      <c r="X331" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y331">
+        <v>374.5854012480125</v>
+      </c>
+      <c r="Z331">
+        <v>356.5854012480125</v>
+      </c>
+      <c r="AA331">
+        <v>18</v>
+      </c>
+      <c r="AB331">
+        <v>18</v>
+      </c>
+      <c r="AC331">
+        <v>438</v>
+      </c>
+      <c r="AD331">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE331">
+        <v>0</v>
+      </c>
+      <c r="AF331">
+        <v>0</v>
+      </c>
+      <c r="AG331">
+        <v>0.16754897695084</v>
+      </c>
+      <c r="AH331">
+        <v>0.16754897695084</v>
+      </c>
+      <c r="AI331">
+        <v>0.1594977246194169</v>
+      </c>
+      <c r="AK331">
+        <v>190.8049307849917</v>
+      </c>
+      <c r="AL331">
+        <v>165.7804704630208</v>
+      </c>
+      <c r="AN331">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO331">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP331">
+        <v>594.7664934678279</v>
+      </c>
+      <c r="AQ331">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR331">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS331">
+        <v>1325.806013329597</v>
+      </c>
+      <c r="AT331">
+        <v>49.65451003487993</v>
+      </c>
+      <c r="AU331">
+        <v>174.3319069861433</v>
+      </c>
+      <c r="AV331">
+        <v>8.551436523122547</v>
+      </c>
+      <c r="AW331">
+        <v>318.0082179749862</v>
+      </c>
+      <c r="AX331">
+        <v>0</v>
+      </c>
+      <c r="AY331">
+        <v>0</v>
+      </c>
+      <c r="AZ331">
+        <v>0</v>
+      </c>
+      <c r="BA331">
+        <v>36.52921797498619</v>
+      </c>
+      <c r="BB331">
+        <v>0</v>
+      </c>
+      <c r="BC331">
+        <v>0</v>
+      </c>
     </row>
-    <row r="332" spans="1:20">
+    <row r="332" spans="1:55">
       <c r="A332" s="1">
         <v>331</v>
       </c>
-      <c r="B332">
-        <v>0</v>
+      <c r="B332" t="s">
+        <v>55</v>
       </c>
       <c r="C332" t="s">
         <v>57</v>
@@ -51998,13 +55166,112 @@
       <c r="T332">
         <v>0.1</v>
       </c>
+      <c r="U332">
+        <v>371.958191236259</v>
+      </c>
+      <c r="V332">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W332">
+        <v>3600.076472400004</v>
+      </c>
+      <c r="X332" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y332">
+        <v>371.958191236259</v>
+      </c>
+      <c r="Z332">
+        <v>353.958191236259</v>
+      </c>
+      <c r="AA332">
+        <v>18</v>
+      </c>
+      <c r="AB332">
+        <v>18</v>
+      </c>
+      <c r="AC332">
+        <v>438</v>
+      </c>
+      <c r="AD332">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE332">
+        <v>0</v>
+      </c>
+      <c r="AF332">
+        <v>0</v>
+      </c>
+      <c r="AG332">
+        <v>0.166373847465714</v>
+      </c>
+      <c r="AH332">
+        <v>0.166373847465714</v>
+      </c>
+      <c r="AI332">
+        <v>0.1583225951342908</v>
+      </c>
+      <c r="AK332">
+        <v>187.8840758006051</v>
+      </c>
+      <c r="AL332">
+        <v>166.0741154356539</v>
+      </c>
+      <c r="AN332">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO332">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP332">
+        <v>594.7664934678287</v>
+      </c>
+      <c r="AQ332">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR332">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS332">
+        <v>1327.933975594387</v>
+      </c>
+      <c r="AT332">
+        <v>51.76132617941916</v>
+      </c>
+      <c r="AU332">
+        <v>175.0116513662869</v>
+      </c>
+      <c r="AV332">
+        <v>8.937535930632968</v>
+      </c>
+      <c r="AW332">
+        <v>313.1401263343419</v>
+      </c>
+      <c r="AX332">
+        <v>0</v>
+      </c>
+      <c r="AY332">
+        <v>0</v>
+      </c>
+      <c r="AZ332">
+        <v>0</v>
+      </c>
+      <c r="BA332">
+        <v>31.88044213072864</v>
+      </c>
+      <c r="BB332">
+        <v>0</v>
+      </c>
+      <c r="BC332">
+        <v>0</v>
+      </c>
     </row>
-    <row r="333" spans="1:20">
+    <row r="333" spans="1:55">
       <c r="A333" s="1">
         <v>332</v>
       </c>
-      <c r="B333">
-        <v>0</v>
+      <c r="B333" t="s">
+        <v>55</v>
       </c>
       <c r="C333" t="s">
         <v>57</v>
@@ -52060,13 +55327,112 @@
       <c r="T333">
         <v>0.12</v>
       </c>
+      <c r="U333">
+        <v>376.4564974974246</v>
+      </c>
+      <c r="V333">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W333">
+        <v>3551.546017100001</v>
+      </c>
+      <c r="X333" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y333">
+        <v>376.4564974974246</v>
+      </c>
+      <c r="Z333">
+        <v>358.4564974974246</v>
+      </c>
+      <c r="AA333">
+        <v>18</v>
+      </c>
+      <c r="AB333">
+        <v>18</v>
+      </c>
+      <c r="AC333">
+        <v>438</v>
+      </c>
+      <c r="AD333">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE333">
+        <v>0</v>
+      </c>
+      <c r="AF333">
+        <v>0</v>
+      </c>
+      <c r="AG333">
+        <v>0.1683859029530843</v>
+      </c>
+      <c r="AH333">
+        <v>0.1683859029530843</v>
+      </c>
+      <c r="AI333">
+        <v>0.1603346506216612</v>
+      </c>
+      <c r="AK333">
+        <v>191.7494133790425</v>
+      </c>
+      <c r="AL333">
+        <v>166.7070841183821</v>
+      </c>
+      <c r="AN333">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO333">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP333">
+        <v>594.7664934678278</v>
+      </c>
+      <c r="AQ333">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR333">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS333">
+        <v>1334.003512858551</v>
+      </c>
+      <c r="AT333">
+        <v>58.00715804034449</v>
+      </c>
+      <c r="AU333">
+        <v>176.6407761540307</v>
+      </c>
+      <c r="AV333">
+        <v>9.933692035648596</v>
+      </c>
+      <c r="AW333">
+        <v>319.5823556317374</v>
+      </c>
+      <c r="AX333">
+        <v>0</v>
+      </c>
+      <c r="AY333">
+        <v>0</v>
+      </c>
+      <c r="AZ333">
+        <v>0</v>
+      </c>
+      <c r="BA333">
+        <v>39.90994412552851</v>
+      </c>
+      <c r="BB333">
+        <v>0</v>
+      </c>
+      <c r="BC333">
+        <v>0</v>
+      </c>
     </row>
-    <row r="334" spans="1:20">
+    <row r="334" spans="1:55">
       <c r="A334" s="1">
         <v>333</v>
       </c>
-      <c r="B334">
-        <v>0</v>
+      <c r="B334" t="s">
+        <v>55</v>
       </c>
       <c r="C334" t="s">
         <v>57</v>
@@ -52122,13 +55488,112 @@
       <c r="T334">
         <v>0.14</v>
       </c>
+      <c r="U334">
+        <v>376.87660250744</v>
+      </c>
+      <c r="V334">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W334">
+        <v>3630.721868699999</v>
+      </c>
+      <c r="X334" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y334">
+        <v>376.87660250744</v>
+      </c>
+      <c r="Z334">
+        <v>358.87660250744</v>
+      </c>
+      <c r="AA334">
+        <v>18</v>
+      </c>
+      <c r="AB334">
+        <v>18</v>
+      </c>
+      <c r="AC334">
+        <v>438</v>
+      </c>
+      <c r="AD334">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE334">
+        <v>0</v>
+      </c>
+      <c r="AF334">
+        <v>0</v>
+      </c>
+      <c r="AG334">
+        <v>0.1685738124776026</v>
+      </c>
+      <c r="AH334">
+        <v>0.1685738124776026</v>
+      </c>
+      <c r="AI334">
+        <v>0.1605225601461795</v>
+      </c>
+      <c r="AK334">
+        <v>191.4889365140574</v>
+      </c>
+      <c r="AL334">
+        <v>167.3876659933826</v>
+      </c>
+      <c r="AN334">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO334">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP334">
+        <v>594.7664934678272</v>
+      </c>
+      <c r="AQ334">
+        <v>2235.677042408431</v>
+      </c>
+      <c r="AR334">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS334">
+        <v>1337.448904168502</v>
+      </c>
+      <c r="AT334">
+        <v>61.55543667700555</v>
+      </c>
+      <c r="AU334">
+        <v>177.969564397407</v>
+      </c>
+      <c r="AV334">
+        <v>10.58189840402438</v>
+      </c>
+      <c r="AW334">
+        <v>319.148227523429</v>
+      </c>
+      <c r="AX334">
+        <v>0</v>
+      </c>
+      <c r="AY334">
+        <v>0</v>
+      </c>
+      <c r="AZ334">
+        <v>0</v>
+      </c>
+      <c r="BA334">
+        <v>50.12858175953205</v>
+      </c>
+      <c r="BB334">
+        <v>0</v>
+      </c>
+      <c r="BC334">
+        <v>0</v>
+      </c>
     </row>
-    <row r="335" spans="1:20">
+    <row r="335" spans="1:55">
       <c r="A335" s="1">
         <v>334</v>
       </c>
-      <c r="B335">
-        <v>0</v>
+      <c r="B335" t="s">
+        <v>55</v>
       </c>
       <c r="C335" t="s">
         <v>57</v>
@@ -52184,13 +55649,112 @@
       <c r="T335">
         <v>0.16</v>
       </c>
+      <c r="U335">
+        <v>380.7090064509347</v>
+      </c>
+      <c r="V335">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W335">
+        <v>3513.658619900001</v>
+      </c>
+      <c r="X335" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y335">
+        <v>380.7090064509347</v>
+      </c>
+      <c r="Z335">
+        <v>362.7090064509347</v>
+      </c>
+      <c r="AA335">
+        <v>18</v>
+      </c>
+      <c r="AB335">
+        <v>18</v>
+      </c>
+      <c r="AC335">
+        <v>438</v>
+      </c>
+      <c r="AD335">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE335">
+        <v>0</v>
+      </c>
+      <c r="AF335">
+        <v>0</v>
+      </c>
+      <c r="AG335">
+        <v>0.1702880153212145</v>
+      </c>
+      <c r="AH335">
+        <v>0.1702880153212145</v>
+      </c>
+      <c r="AI335">
+        <v>0.1622367629897914</v>
+      </c>
+      <c r="AK335">
+        <v>194.5824144654277</v>
+      </c>
+      <c r="AL335">
+        <v>168.126591985507</v>
+      </c>
+      <c r="AN335">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO335">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP335">
+        <v>594.7664934678281</v>
+      </c>
+      <c r="AQ335">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR335">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS335">
+        <v>1339.361802458948</v>
+      </c>
+      <c r="AT335">
+        <v>63.63076615885706</v>
+      </c>
+      <c r="AU335">
+        <v>179.0181130402449</v>
+      </c>
+      <c r="AV335">
+        <v>10.89152105473792</v>
+      </c>
+      <c r="AW335">
+        <v>324.3040241090462</v>
+      </c>
+      <c r="AX335">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AY335">
+        <v>6.023546448786179E-16</v>
+      </c>
+      <c r="AZ335">
+        <v>0</v>
+      </c>
+      <c r="BA335">
+        <v>64.29907706126197</v>
+      </c>
+      <c r="BB335">
+        <v>0</v>
+      </c>
+      <c r="BC335">
+        <v>0</v>
+      </c>
     </row>
-    <row r="336" spans="1:20">
+    <row r="336" spans="1:55">
       <c r="A336" s="1">
         <v>335</v>
       </c>
-      <c r="B336">
-        <v>0</v>
+      <c r="B336" t="s">
+        <v>55</v>
       </c>
       <c r="C336" t="s">
         <v>57</v>
@@ -52246,13 +55810,112 @@
       <c r="T336">
         <v>0.18</v>
       </c>
+      <c r="U336">
+        <v>395.0704772648439</v>
+      </c>
+      <c r="V336">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W336">
+        <v>3533.524056000002</v>
+      </c>
+      <c r="X336" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y336">
+        <v>395.0704772648439</v>
+      </c>
+      <c r="Z336">
+        <v>377.0704772648439</v>
+      </c>
+      <c r="AA336">
+        <v>18</v>
+      </c>
+      <c r="AB336">
+        <v>18</v>
+      </c>
+      <c r="AC336">
+        <v>438</v>
+      </c>
+      <c r="AD336">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE336">
+        <v>0</v>
+      </c>
+      <c r="AF336">
+        <v>0</v>
+      </c>
+      <c r="AG336">
+        <v>0.1775670503741389</v>
+      </c>
+      <c r="AH336">
+        <v>0.1775670503741389</v>
+      </c>
+      <c r="AI336">
+        <v>0.1694768308040447</v>
+      </c>
+      <c r="AK336">
+        <v>209.7298179758285</v>
+      </c>
+      <c r="AL336">
+        <v>167.3406592890154</v>
+      </c>
+      <c r="AN336">
+        <v>63.68878082667593</v>
+      </c>
+      <c r="AO336">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP336">
+        <v>583.9981626273302</v>
+      </c>
+      <c r="AQ336">
+        <v>2224.908711567934</v>
+      </c>
+      <c r="AR336">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS336">
+        <v>1334.849728467496</v>
+      </c>
+      <c r="AT336">
+        <v>70.2372689749951</v>
+      </c>
+      <c r="AU336">
+        <v>179.3002667240829</v>
+      </c>
+      <c r="AV336">
+        <v>11.95960743506746</v>
+      </c>
+      <c r="AW336">
+        <v>349.5496966263809</v>
+      </c>
+      <c r="AX336">
+        <v>0</v>
+      </c>
+      <c r="AY336">
+        <v>0</v>
+      </c>
+      <c r="AZ336">
+        <v>0</v>
+      </c>
+      <c r="BA336">
+        <v>80.6126208640282</v>
+      </c>
+      <c r="BB336">
+        <v>0</v>
+      </c>
+      <c r="BC336">
+        <v>0</v>
+      </c>
     </row>
-    <row r="337" spans="1:20">
+    <row r="337" spans="1:55">
       <c r="A337" s="1">
         <v>336</v>
       </c>
-      <c r="B337">
-        <v>0</v>
+      <c r="B337" t="s">
+        <v>55</v>
       </c>
       <c r="C337" t="s">
         <v>57</v>
@@ -52308,13 +55971,112 @@
       <c r="T337">
         <v>0.2</v>
       </c>
+      <c r="U337">
+        <v>386.5956333645274</v>
+      </c>
+      <c r="V337">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W337">
+        <v>3142.2983465</v>
+      </c>
+      <c r="X337" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y337">
+        <v>386.5956333645274</v>
+      </c>
+      <c r="Z337">
+        <v>368.5956333645274</v>
+      </c>
+      <c r="AA337">
+        <v>18</v>
+      </c>
+      <c r="AB337">
+        <v>18</v>
+      </c>
+      <c r="AC337">
+        <v>438</v>
+      </c>
+      <c r="AD337">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE337">
+        <v>0</v>
+      </c>
+      <c r="AF337">
+        <v>0</v>
+      </c>
+      <c r="AG337">
+        <v>0.1729210552468969</v>
+      </c>
+      <c r="AH337">
+        <v>0.1729210552468969</v>
+      </c>
+      <c r="AI337">
+        <v>0.1648698029154738</v>
+      </c>
+      <c r="AK337">
+        <v>199.1576766733778</v>
+      </c>
+      <c r="AL337">
+        <v>169.4379566911496</v>
+      </c>
+      <c r="AN337">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO337">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP337">
+        <v>594.7664934678278</v>
+      </c>
+      <c r="AQ337">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR337">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS337">
+        <v>1350.202062368727</v>
+      </c>
+      <c r="AT337">
+        <v>74.82143973269599</v>
+      </c>
+      <c r="AU337">
+        <v>182.0962773459819</v>
+      </c>
+      <c r="AV337">
+        <v>12.65832065483234</v>
+      </c>
+      <c r="AW337">
+        <v>331.9294611222963</v>
+      </c>
+      <c r="AX337">
+        <v>0</v>
+      </c>
+      <c r="AY337">
+        <v>0</v>
+      </c>
+      <c r="AZ337">
+        <v>0</v>
+      </c>
+      <c r="BA337">
+        <v>72.48230607093069</v>
+      </c>
+      <c r="BB337">
+        <v>0</v>
+      </c>
+      <c r="BC337">
+        <v>0</v>
+      </c>
     </row>
-    <row r="338" spans="1:20">
+    <row r="338" spans="1:55">
       <c r="A338" s="1">
         <v>337</v>
       </c>
-      <c r="B338">
-        <v>0</v>
+      <c r="B338" t="s">
+        <v>56</v>
       </c>
       <c r="C338" t="s">
         <v>57</v>
@@ -52371,12 +56133,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="339" spans="1:20">
+    <row r="339" spans="1:55">
       <c r="A339" s="1">
         <v>338</v>
       </c>
-      <c r="B339">
-        <v>0</v>
+      <c r="B339" t="s">
+        <v>56</v>
       </c>
       <c r="C339" t="s">
         <v>57</v>
@@ -52433,12 +56195,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="340" spans="1:20">
+    <row r="340" spans="1:55">
       <c r="A340" s="1">
         <v>339</v>
       </c>
-      <c r="B340">
-        <v>0</v>
+      <c r="B340" t="s">
+        <v>56</v>
       </c>
       <c r="C340" t="s">
         <v>57</v>
@@ -52495,12 +56257,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="341" spans="1:20">
+    <row r="341" spans="1:55">
       <c r="A341" s="1">
         <v>340</v>
       </c>
-      <c r="B341">
-        <v>0</v>
+      <c r="B341" t="s">
+        <v>56</v>
       </c>
       <c r="C341" t="s">
         <v>57</v>
@@ -52557,12 +56319,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="342" spans="1:20">
+    <row r="342" spans="1:55">
       <c r="A342" s="1">
         <v>341</v>
       </c>
-      <c r="B342">
-        <v>0</v>
+      <c r="B342" t="s">
+        <v>56</v>
       </c>
       <c r="C342" t="s">
         <v>57</v>
@@ -52619,12 +56381,12 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="343" spans="1:20">
+    <row r="343" spans="1:55">
       <c r="A343" s="1">
         <v>342</v>
       </c>
-      <c r="B343">
-        <v>0</v>
+      <c r="B343" t="s">
+        <v>56</v>
       </c>
       <c r="C343" t="s">
         <v>57</v>
@@ -52681,12 +56443,12 @@
         <v>0.005</v>
       </c>
     </row>
-    <row r="344" spans="1:20">
+    <row r="344" spans="1:55">
       <c r="A344" s="1">
         <v>343</v>
       </c>
-      <c r="B344">
-        <v>0</v>
+      <c r="B344" t="s">
+        <v>56</v>
       </c>
       <c r="C344" t="s">
         <v>57</v>
@@ -52743,12 +56505,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="345" spans="1:20">
+    <row r="345" spans="1:55">
       <c r="A345" s="1">
         <v>344</v>
       </c>
-      <c r="B345">
-        <v>0</v>
+      <c r="B345" t="s">
+        <v>56</v>
       </c>
       <c r="C345" t="s">
         <v>57</v>
@@ -52805,12 +56567,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="346" spans="1:20">
+    <row r="346" spans="1:55">
       <c r="A346" s="1">
         <v>345</v>
       </c>
-      <c r="B346">
-        <v>0</v>
+      <c r="B346" t="s">
+        <v>56</v>
       </c>
       <c r="C346" t="s">
         <v>57</v>
@@ -52867,12 +56629,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="347" spans="1:20">
+    <row r="347" spans="1:55">
       <c r="A347" s="1">
         <v>346</v>
       </c>
-      <c r="B347">
-        <v>0</v>
+      <c r="B347" t="s">
+        <v>56</v>
       </c>
       <c r="C347" t="s">
         <v>57</v>
@@ -52929,12 +56691,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="348" spans="1:20">
+    <row r="348" spans="1:55">
       <c r="A348" s="1">
         <v>347</v>
       </c>
-      <c r="B348">
-        <v>0</v>
+      <c r="B348" t="s">
+        <v>56</v>
       </c>
       <c r="C348" t="s">
         <v>57</v>
@@ -52991,12 +56753,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="349" spans="1:20">
+    <row r="349" spans="1:55">
       <c r="A349" s="1">
         <v>348</v>
       </c>
-      <c r="B349">
-        <v>0</v>
+      <c r="B349" t="s">
+        <v>56</v>
       </c>
       <c r="C349" t="s">
         <v>57</v>
@@ -53053,12 +56815,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="350" spans="1:20">
+    <row r="350" spans="1:55">
       <c r="A350" s="1">
         <v>349</v>
       </c>
-      <c r="B350">
-        <v>0</v>
+      <c r="B350" t="s">
+        <v>56</v>
       </c>
       <c r="C350" t="s">
         <v>57</v>
@@ -53115,12 +56877,12 @@
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:20">
+    <row r="351" spans="1:55">
       <c r="A351" s="1">
         <v>350</v>
       </c>
-      <c r="B351">
-        <v>0</v>
+      <c r="B351" t="s">
+        <v>56</v>
       </c>
       <c r="C351" t="s">
         <v>57</v>
@@ -53177,12 +56939,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="352" spans="1:20">
+    <row r="352" spans="1:55">
       <c r="A352" s="1">
         <v>351</v>
       </c>
-      <c r="B352">
-        <v>0</v>
+      <c r="B352" t="s">
+        <v>56</v>
       </c>
       <c r="C352" t="s">
         <v>57</v>
@@ -53243,8 +57005,8 @@
       <c r="A353" s="1">
         <v>352</v>
       </c>
-      <c r="B353">
-        <v>0</v>
+      <c r="B353" t="s">
+        <v>56</v>
       </c>
       <c r="C353" t="s">
         <v>57</v>
@@ -53305,8 +57067,8 @@
       <c r="A354" s="1">
         <v>353</v>
       </c>
-      <c r="B354">
-        <v>0</v>
+      <c r="B354" t="s">
+        <v>56</v>
       </c>
       <c r="C354" t="s">
         <v>57</v>
@@ -53367,8 +57129,8 @@
       <c r="A355" s="1">
         <v>354</v>
       </c>
-      <c r="B355">
-        <v>0</v>
+      <c r="B355" t="s">
+        <v>56</v>
       </c>
       <c r="C355" t="s">
         <v>57</v>
@@ -53429,8 +57191,8 @@
       <c r="A356" s="1">
         <v>355</v>
       </c>
-      <c r="B356">
-        <v>0</v>
+      <c r="B356" t="s">
+        <v>56</v>
       </c>
       <c r="C356" t="s">
         <v>57</v>
@@ -53491,8 +57253,8 @@
       <c r="A357" s="1">
         <v>356</v>
       </c>
-      <c r="B357">
-        <v>0</v>
+      <c r="B357" t="s">
+        <v>56</v>
       </c>
       <c r="C357" t="s">
         <v>57</v>
@@ -53553,8 +57315,8 @@
       <c r="A358" s="1">
         <v>357</v>
       </c>
-      <c r="B358">
-        <v>0</v>
+      <c r="B358" t="s">
+        <v>56</v>
       </c>
       <c r="C358" t="s">
         <v>57</v>
@@ -53615,8 +57377,8 @@
       <c r="A359" s="1">
         <v>358</v>
       </c>
-      <c r="B359">
-        <v>0</v>
+      <c r="B359" t="s">
+        <v>56</v>
       </c>
       <c r="C359" t="s">
         <v>57</v>
@@ -53677,8 +57439,8 @@
       <c r="A360" s="1">
         <v>359</v>
       </c>
-      <c r="B360">
-        <v>0</v>
+      <c r="B360" t="s">
+        <v>56</v>
       </c>
       <c r="C360" t="s">
         <v>57</v>
@@ -53739,8 +57501,8 @@
       <c r="A361" s="1">
         <v>360</v>
       </c>
-      <c r="B361">
-        <v>0</v>
+      <c r="B361" t="s">
+        <v>56</v>
       </c>
       <c r="C361" t="s">
         <v>57</v>
@@ -53801,8 +57563,8 @@
       <c r="A362" s="1">
         <v>361</v>
       </c>
-      <c r="B362">
-        <v>0</v>
+      <c r="B362" t="s">
+        <v>56</v>
       </c>
       <c r="C362" t="s">
         <v>57</v>
@@ -53863,8 +57625,8 @@
       <c r="A363" s="1">
         <v>362</v>
       </c>
-      <c r="B363">
-        <v>0</v>
+      <c r="B363" t="s">
+        <v>56</v>
       </c>
       <c r="C363" t="s">
         <v>57</v>
@@ -53925,8 +57687,8 @@
       <c r="A364" s="1">
         <v>363</v>
       </c>
-      <c r="B364">
-        <v>0</v>
+      <c r="B364" t="s">
+        <v>56</v>
       </c>
       <c r="C364" t="s">
         <v>57</v>
@@ -53987,8 +57749,8 @@
       <c r="A365" s="1">
         <v>364</v>
       </c>
-      <c r="B365">
-        <v>0</v>
+      <c r="B365" t="s">
+        <v>56</v>
       </c>
       <c r="C365" t="s">
         <v>57</v>
@@ -54049,8 +57811,8 @@
       <c r="A366" s="1">
         <v>365</v>
       </c>
-      <c r="B366">
-        <v>0</v>
+      <c r="B366" t="s">
+        <v>56</v>
       </c>
       <c r="C366" t="s">
         <v>57</v>
@@ -54111,8 +57873,8 @@
       <c r="A367" s="1">
         <v>366</v>
       </c>
-      <c r="B367">
-        <v>0</v>
+      <c r="B367" t="s">
+        <v>56</v>
       </c>
       <c r="C367" t="s">
         <v>57</v>
@@ -54173,8 +57935,8 @@
       <c r="A368" s="1">
         <v>367</v>
       </c>
-      <c r="B368">
-        <v>0</v>
+      <c r="B368" t="s">
+        <v>56</v>
       </c>
       <c r="C368" t="s">
         <v>57</v>
@@ -54235,8 +57997,8 @@
       <c r="A369" s="1">
         <v>368</v>
       </c>
-      <c r="B369">
-        <v>0</v>
+      <c r="B369" t="s">
+        <v>56</v>
       </c>
       <c r="C369" t="s">
         <v>57</v>
@@ -54297,8 +58059,8 @@
       <c r="A370" s="1">
         <v>369</v>
       </c>
-      <c r="B370">
-        <v>0</v>
+      <c r="B370" t="s">
+        <v>56</v>
       </c>
       <c r="C370" t="s">
         <v>57</v>
@@ -54359,8 +58121,8 @@
       <c r="A371" s="1">
         <v>370</v>
       </c>
-      <c r="B371">
-        <v>0</v>
+      <c r="B371" t="s">
+        <v>56</v>
       </c>
       <c r="C371" t="s">
         <v>57</v>
@@ -54421,8 +58183,8 @@
       <c r="A372" s="1">
         <v>371</v>
       </c>
-      <c r="B372">
-        <v>0</v>
+      <c r="B372" t="s">
+        <v>56</v>
       </c>
       <c r="C372" t="s">
         <v>57</v>
@@ -54483,8 +58245,8 @@
       <c r="A373" s="1">
         <v>372</v>
       </c>
-      <c r="B373">
-        <v>0</v>
+      <c r="B373" t="s">
+        <v>56</v>
       </c>
       <c r="C373" t="s">
         <v>57</v>
@@ -54545,8 +58307,8 @@
       <c r="A374" s="1">
         <v>373</v>
       </c>
-      <c r="B374">
-        <v>0</v>
+      <c r="B374" t="s">
+        <v>56</v>
       </c>
       <c r="C374" t="s">
         <v>57</v>
@@ -54607,8 +58369,8 @@
       <c r="A375" s="1">
         <v>374</v>
       </c>
-      <c r="B375">
-        <v>0</v>
+      <c r="B375" t="s">
+        <v>56</v>
       </c>
       <c r="C375" t="s">
         <v>57</v>
@@ -54669,8 +58431,8 @@
       <c r="A376" s="1">
         <v>375</v>
       </c>
-      <c r="B376">
-        <v>0</v>
+      <c r="B376" t="s">
+        <v>56</v>
       </c>
       <c r="C376" t="s">
         <v>57</v>
@@ -54731,8 +58493,8 @@
       <c r="A377" s="1">
         <v>376</v>
       </c>
-      <c r="B377">
-        <v>0</v>
+      <c r="B377" t="s">
+        <v>56</v>
       </c>
       <c r="C377" t="s">
         <v>57</v>
@@ -54793,8 +58555,8 @@
       <c r="A378" s="1">
         <v>377</v>
       </c>
-      <c r="B378">
-        <v>0</v>
+      <c r="B378" t="s">
+        <v>56</v>
       </c>
       <c r="C378" t="s">
         <v>57</v>
@@ -54855,8 +58617,8 @@
       <c r="A379" s="1">
         <v>378</v>
       </c>
-      <c r="B379">
-        <v>0</v>
+      <c r="B379" t="s">
+        <v>56</v>
       </c>
       <c r="C379" t="s">
         <v>57</v>
@@ -54917,8 +58679,8 @@
       <c r="A380" s="1">
         <v>379</v>
       </c>
-      <c r="B380">
-        <v>0</v>
+      <c r="B380" t="s">
+        <v>56</v>
       </c>
       <c r="C380" t="s">
         <v>57</v>
@@ -54979,8 +58741,8 @@
       <c r="A381" s="1">
         <v>380</v>
       </c>
-      <c r="B381">
-        <v>0</v>
+      <c r="B381" t="s">
+        <v>56</v>
       </c>
       <c r="C381" t="s">
         <v>57</v>
@@ -55041,8 +58803,8 @@
       <c r="A382" s="1">
         <v>381</v>
       </c>
-      <c r="B382">
-        <v>0</v>
+      <c r="B382" t="s">
+        <v>56</v>
       </c>
       <c r="C382" t="s">
         <v>57</v>
@@ -55103,8 +58865,8 @@
       <c r="A383" s="1">
         <v>382</v>
       </c>
-      <c r="B383">
-        <v>0</v>
+      <c r="B383" t="s">
+        <v>56</v>
       </c>
       <c r="C383" t="s">
         <v>57</v>
@@ -55226,7 +58988,7 @@
         <v>3897.221487299998</v>
       </c>
       <c r="X384" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="Y384">
         <v>279.8936183602474</v>
@@ -55381,7 +59143,7 @@
         <v>2311.698957000001</v>
       </c>
       <c r="X385" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="Y385">
         <v>348.3531467499972</v>
@@ -55542,7 +59304,7 @@
         <v>3836.239859399997</v>
       </c>
       <c r="X386" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="Y386">
         <v>348.806962831817</v>
@@ -55703,7 +59465,7 @@
         <v>3442.430852400001</v>
       </c>
       <c r="X387" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="Y387">
         <v>370.0883905962422</v>
@@ -55864,7 +59626,7 @@
         <v>3907.089183399999</v>
       </c>
       <c r="X388" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="Y388">
         <v>385.137996379388</v>
@@ -56025,7 +59787,7 @@
         <v>3716.526419599999</v>
       </c>
       <c r="X389" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="Y389">
         <v>405.2161761244747</v>
@@ -56186,7 +59948,7 @@
         <v>3656.159324300002</v>
       </c>
       <c r="X390" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="Y390">
         <v>406.7143258249167</v>
@@ -56347,7 +60109,7 @@
         <v>3411.602488899996</v>
       </c>
       <c r="X391" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="Y391">
         <v>408.9811413905576</v>
@@ -56508,7 +60270,7 @@
         <v>3604.9923843</v>
       </c>
       <c r="X392" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="Y392">
         <v>408.5364817219305</v>
@@ -56669,7 +60431,7 @@
         <v>3632.114093199998</v>
       </c>
       <c r="X393" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="Y393">
         <v>414.1013380800861</v>
@@ -56830,7 +60592,7 @@
         <v>3792.104075700001</v>
       </c>
       <c r="X394" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="Y394">
         <v>414.7839131410087</v>
@@ -56991,7 +60753,7 @@
         <v>3736.0872991</v>
       </c>
       <c r="X395" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="Y395">
         <v>418.3606910610252</v>
@@ -57152,7 +60914,7 @@
         <v>3742.239441999998</v>
       </c>
       <c r="X396" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="Y396">
         <v>417.6101220699084</v>
@@ -57313,7 +61075,7 @@
         <v>3722.297108500003</v>
       </c>
       <c r="X397" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="Y397">
         <v>420.7893215572091</v>
@@ -57474,7 +61236,7 @@
         <v>1024.3681675</v>
       </c>
       <c r="X398" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="Y398">
         <v>421.782163593567</v>
@@ -57635,7 +61397,7 @@
         <v>3681.911680799996</v>
       </c>
       <c r="X399" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="Y399">
         <v>425.4838271500676</v>
@@ -57796,7 +61558,7 @@
         <v>3650.635097500002</v>
       </c>
       <c r="X400" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="Y400">
         <v>431.1816541381053</v>
@@ -57957,7 +61719,7 @@
         <v>3453.848905799998</v>
       </c>
       <c r="X401" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="Y401">
         <v>440.8035668303288</v>
@@ -58118,7 +61880,7 @@
         <v>3464.581374299996</v>
       </c>
       <c r="X402" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="Y402">
         <v>432.2804053450624</v>
@@ -58279,7 +62041,7 @@
         <v>3418.054653000007</v>
       </c>
       <c r="X403" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="Y403">
         <v>450.2860677772455</v>
@@ -58440,7 +62202,7 @@
         <v>3314.1210403</v>
       </c>
       <c r="X404" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="Y404">
         <v>465.0647893737433</v>
@@ -58601,7 +62363,7 @@
         <v>3315.903883200001</v>
       </c>
       <c r="X405" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="Y405">
         <v>465.0393896525168</v>
@@ -58762,7 +62524,7 @@
         <v>3241.478119200001</v>
       </c>
       <c r="X406" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="Y406">
         <v>473.1354221756617</v>
@@ -58923,7 +62685,7 @@
         <v>3280.418088500002</v>
       </c>
       <c r="X407" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="Y407">
         <v>343.0777662631516</v>
@@ -59084,7 +62846,7 @@
         <v>3171.839544000002</v>
       </c>
       <c r="X408" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="Y408">
         <v>343.4165135186197</v>
@@ -59245,7 +63007,7 @@
         <v>3190.9816746</v>
       </c>
       <c r="X409" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="Y409">
         <v>343.8795392840491</v>
@@ -59406,7 +63168,7 @@
         <v>3177.610858799999</v>
       </c>
       <c r="X410" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="Y410">
         <v>344.5838215041886</v>
@@ -59567,7 +63329,7 @@
         <v>3195.113526699999</v>
       </c>
       <c r="X411" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="Y411">
         <v>345.2793551678156</v>
@@ -59728,7 +63490,7 @@
         <v>3280.791761700006</v>
       </c>
       <c r="X412" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="Y412">
         <v>346.4556386308727</v>
@@ -59889,7 +63651,7 @@
         <v>3105.680322300002</v>
       </c>
       <c r="X413" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="Y413">
         <v>347.1474899085106</v>
@@ -60050,7 +63812,7 @@
         <v>3169.063787100007</v>
       </c>
       <c r="X414" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="Y414">
         <v>347.7440850254872</v>
@@ -60211,7 +63973,7 @@
         <v>3205.372230699999</v>
       </c>
       <c r="X415" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="Y415">
         <v>348.9542572697046</v>
@@ -60372,7 +64134,7 @@
         <v>3208.742600400001</v>
       </c>
       <c r="X416" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="Y416">
         <v>349.9405893365644</v>
@@ -60533,7 +64295,7 @@
         <v>3206.8106825</v>
       </c>
       <c r="X417" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="Y417">
         <v>350.7233945632442</v>
@@ -60694,7 +64456,7 @@
         <v>3130.4172578</v>
       </c>
       <c r="X418" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="Y418">
         <v>350.6700311224423</v>
@@ -60855,7 +64617,7 @@
         <v>3232.8221567</v>
       </c>
       <c r="X419" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="Y419">
         <v>352.424171498975</v>
@@ -61016,7 +64778,7 @@
         <v>3178.918484999995</v>
       </c>
       <c r="X420" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="Y420">
         <v>354.0064011441825</v>
@@ -61177,7 +64939,7 @@
         <v>3147.014173200005</v>
       </c>
       <c r="X421" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="Y421">
         <v>355.8958771672692</v>
@@ -61338,7 +65100,7 @@
         <v>3201.190212099995</v>
       </c>
       <c r="X422" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="Y422">
         <v>357.3412221164763</v>
@@ -61499,7 +65261,7 @@
         <v>3258.6570326</v>
       </c>
       <c r="X423" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="Y423">
         <v>360.5893343671635</v>
@@ -61660,7 +65422,7 @@
         <v>3265.4929605</v>
       </c>
       <c r="X424" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="Y424">
         <v>365.1125454608829</v>
@@ -61821,7 +65583,7 @@
         <v>3089.613604699996</v>
       </c>
       <c r="X425" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="Y425">
         <v>365.9915328515358</v>
@@ -61982,7 +65744,7 @@
         <v>3226.525933199999</v>
       </c>
       <c r="X426" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="Y426">
         <v>370.8148688302539</v>
@@ -62143,7 +65905,7 @@
         <v>3185.859392300001</v>
       </c>
       <c r="X427" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="Y427">
         <v>379.0851501189194</v>
@@ -62304,7 +66066,7 @@
         <v>3173.343826300006</v>
       </c>
       <c r="X428" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="Y428">
         <v>352.3841968916731</v>
@@ -62465,7 +66227,7 @@
         <v>3250.138160200004</v>
       </c>
       <c r="X429" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="Y429">
         <v>376.3596058507264</v>
@@ -62626,7 +66388,7 @@
         <v>3204.268166399997</v>
       </c>
       <c r="X430" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="Y430">
         <v>400.641914474191</v>
@@ -62787,7 +66549,7 @@
         <v>3267.106841400004</v>
       </c>
       <c r="X431" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="Y431">
         <v>403.2103908819987</v>
@@ -62948,7 +66710,7 @@
         <v>3181.099621400004</v>
       </c>
       <c r="X432" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="Y432">
         <v>404.2997858149643</v>
@@ -63109,7 +66871,7 @@
         <v>3138.622256100003</v>
       </c>
       <c r="X433" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="Y433">
         <v>405.3124056257442</v>
@@ -63270,7 +67032,7 @@
         <v>3152.2187682</v>
       </c>
       <c r="X434" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="Y434">
         <v>406.7023298820113</v>
@@ -63431,7 +67193,7 @@
         <v>3270.664735300001</v>
       </c>
       <c r="X435" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="Y435">
         <v>408.3869194208438</v>
@@ -63592,7 +67354,7 @@
         <v>3236.364855200001</v>
       </c>
       <c r="X436" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="Y436">
         <v>409.3906841957796</v>
@@ -63753,7 +67515,7 @@
         <v>3162.875237699998</v>
       </c>
       <c r="X437" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="Y437">
         <v>411.0291520123704</v>
@@ -63914,7 +67676,7 @@
         <v>3168.780065899999</v>
       </c>
       <c r="X438" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="Y438">
         <v>412.7079270323609</v>
@@ -64075,7 +67837,7 @@
         <v>3198.844494899997</v>
       </c>
       <c r="X439" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="Y439">
         <v>413.8953388006988</v>
@@ -64236,7 +67998,7 @@
         <v>3165.810946400008</v>
       </c>
       <c r="X440" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="Y440">
         <v>416.9433387255552</v>
@@ -64397,7 +68159,7 @@
         <v>2976.059073999997</v>
       </c>
       <c r="X441" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="Y441">
         <v>419.1796226653169</v>
@@ -64558,7 +68320,7 @@
         <v>3273.199819400004</v>
       </c>
       <c r="X442" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="Y442">
         <v>422.2308298280782</v>
@@ -64719,7 +68481,7 @@
         <v>2682.723421099996</v>
       </c>
       <c r="X443" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="Y443">
         <v>424.1487625916749</v>
@@ -64880,7 +68642,7 @@
         <v>2593.250632099996</v>
       </c>
       <c r="X444" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="Y444">
         <v>426.9646879247706</v>
@@ -65041,7 +68803,7 @@
         <v>2075.147665799996</v>
       </c>
       <c r="X445" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="Y445">
         <v>436.4089240822656</v>
@@ -65202,7 +68964,7 @@
         <v>2698.748878999999</v>
       </c>
       <c r="X446" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="Y446">
         <v>440.6579672475936</v>
@@ -65363,7 +69125,7 @@
         <v>2048.332531</v>
       </c>
       <c r="X447" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="Y447">
         <v>447.738799206754</v>
@@ -65524,7 +69286,7 @@
         <v>1564.806518400008</v>
       </c>
       <c r="X448" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="Y448">
         <v>456.8641140872472</v>
@@ -65618,8 +69380,8 @@
       <c r="A449" s="1">
         <v>448</v>
       </c>
-      <c r="B449">
-        <v>0</v>
+      <c r="B449" t="s">
+        <v>56</v>
       </c>
       <c r="C449" t="s">
         <v>57</v>
@@ -65680,8 +69442,8 @@
       <c r="A450" s="1">
         <v>449</v>
       </c>
-      <c r="B450">
-        <v>0</v>
+      <c r="B450" t="s">
+        <v>56</v>
       </c>
       <c r="C450" t="s">
         <v>57</v>
@@ -65742,8 +69504,8 @@
       <c r="A451" s="1">
         <v>450</v>
       </c>
-      <c r="B451">
-        <v>0</v>
+      <c r="B451" t="s">
+        <v>56</v>
       </c>
       <c r="C451" t="s">
         <v>57</v>
@@ -65804,8 +69566,8 @@
       <c r="A452" s="1">
         <v>451</v>
       </c>
-      <c r="B452">
-        <v>0</v>
+      <c r="B452" t="s">
+        <v>56</v>
       </c>
       <c r="C452" t="s">
         <v>57</v>
@@ -65866,8 +69628,8 @@
       <c r="A453" s="1">
         <v>452</v>
       </c>
-      <c r="B453">
-        <v>0</v>
+      <c r="B453" t="s">
+        <v>56</v>
       </c>
       <c r="C453" t="s">
         <v>57</v>
@@ -65928,8 +69690,8 @@
       <c r="A454" s="1">
         <v>453</v>
       </c>
-      <c r="B454">
-        <v>0</v>
+      <c r="B454" t="s">
+        <v>56</v>
       </c>
       <c r="C454" t="s">
         <v>57</v>
@@ -65990,8 +69752,8 @@
       <c r="A455" s="1">
         <v>454</v>
       </c>
-      <c r="B455">
-        <v>0</v>
+      <c r="B455" t="s">
+        <v>56</v>
       </c>
       <c r="C455" t="s">
         <v>57</v>
@@ -66052,8 +69814,8 @@
       <c r="A456" s="1">
         <v>455</v>
       </c>
-      <c r="B456">
-        <v>0</v>
+      <c r="B456" t="s">
+        <v>56</v>
       </c>
       <c r="C456" t="s">
         <v>57</v>
@@ -66114,8 +69876,8 @@
       <c r="A457" s="1">
         <v>456</v>
       </c>
-      <c r="B457">
-        <v>0</v>
+      <c r="B457" t="s">
+        <v>56</v>
       </c>
       <c r="C457" t="s">
         <v>57</v>
@@ -66176,8 +69938,8 @@
       <c r="A458" s="1">
         <v>457</v>
       </c>
-      <c r="B458">
-        <v>0</v>
+      <c r="B458" t="s">
+        <v>56</v>
       </c>
       <c r="C458" t="s">
         <v>57</v>
@@ -66238,8 +70000,8 @@
       <c r="A459" s="1">
         <v>458</v>
       </c>
-      <c r="B459">
-        <v>0</v>
+      <c r="B459" t="s">
+        <v>56</v>
       </c>
       <c r="C459" t="s">
         <v>57</v>
@@ -66300,8 +70062,8 @@
       <c r="A460" s="1">
         <v>459</v>
       </c>
-      <c r="B460">
-        <v>0</v>
+      <c r="B460" t="s">
+        <v>56</v>
       </c>
       <c r="C460" t="s">
         <v>57</v>
@@ -66362,8 +70124,8 @@
       <c r="A461" s="1">
         <v>460</v>
       </c>
-      <c r="B461">
-        <v>0</v>
+      <c r="B461" t="s">
+        <v>56</v>
       </c>
       <c r="C461" t="s">
         <v>57</v>
@@ -66424,8 +70186,8 @@
       <c r="A462" s="1">
         <v>461</v>
       </c>
-      <c r="B462">
-        <v>0</v>
+      <c r="B462" t="s">
+        <v>56</v>
       </c>
       <c r="C462" t="s">
         <v>57</v>
@@ -66486,8 +70248,8 @@
       <c r="A463" s="1">
         <v>462</v>
       </c>
-      <c r="B463">
-        <v>0</v>
+      <c r="B463" t="s">
+        <v>56</v>
       </c>
       <c r="C463" t="s">
         <v>57</v>
@@ -66548,8 +70310,8 @@
       <c r="A464" s="1">
         <v>463</v>
       </c>
-      <c r="B464">
-        <v>0</v>
+      <c r="B464" t="s">
+        <v>56</v>
       </c>
       <c r="C464" t="s">
         <v>57</v>
@@ -66610,8 +70372,8 @@
       <c r="A465" s="1">
         <v>464</v>
       </c>
-      <c r="B465">
-        <v>0</v>
+      <c r="B465" t="s">
+        <v>56</v>
       </c>
       <c r="C465" t="s">
         <v>57</v>
@@ -66672,8 +70434,8 @@
       <c r="A466" s="1">
         <v>465</v>
       </c>
-      <c r="B466">
-        <v>0</v>
+      <c r="B466" t="s">
+        <v>56</v>
       </c>
       <c r="C466" t="s">
         <v>57</v>
@@ -66734,8 +70496,8 @@
       <c r="A467" s="1">
         <v>466</v>
       </c>
-      <c r="B467">
-        <v>0</v>
+      <c r="B467" t="s">
+        <v>56</v>
       </c>
       <c r="C467" t="s">
         <v>57</v>
@@ -66796,8 +70558,8 @@
       <c r="A468" s="1">
         <v>467</v>
       </c>
-      <c r="B468">
-        <v>0</v>
+      <c r="B468" t="s">
+        <v>56</v>
       </c>
       <c r="C468" t="s">
         <v>57</v>
@@ -66858,8 +70620,8 @@
       <c r="A469" s="1">
         <v>468</v>
       </c>
-      <c r="B469">
-        <v>0</v>
+      <c r="B469" t="s">
+        <v>56</v>
       </c>
       <c r="C469" t="s">
         <v>57</v>
@@ -66920,8 +70682,8 @@
       <c r="A470" s="1">
         <v>469</v>
       </c>
-      <c r="B470">
-        <v>0</v>
+      <c r="B470" t="s">
+        <v>56</v>
       </c>
       <c r="C470" t="s">
         <v>57</v>
@@ -66982,8 +70744,8 @@
       <c r="A471" s="1">
         <v>470</v>
       </c>
-      <c r="B471">
-        <v>0</v>
+      <c r="B471" t="s">
+        <v>56</v>
       </c>
       <c r="C471" t="s">
         <v>57</v>
@@ -67044,8 +70806,8 @@
       <c r="A472" s="1">
         <v>471</v>
       </c>
-      <c r="B472">
-        <v>0</v>
+      <c r="B472" t="s">
+        <v>56</v>
       </c>
       <c r="C472" t="s">
         <v>57</v>
@@ -67106,8 +70868,8 @@
       <c r="A473" s="1">
         <v>472</v>
       </c>
-      <c r="B473">
-        <v>0</v>
+      <c r="B473" t="s">
+        <v>56</v>
       </c>
       <c r="C473" t="s">
         <v>57</v>
@@ -67168,8 +70930,8 @@
       <c r="A474" s="1">
         <v>473</v>
       </c>
-      <c r="B474">
-        <v>0</v>
+      <c r="B474" t="s">
+        <v>56</v>
       </c>
       <c r="C474" t="s">
         <v>57</v>
@@ -67230,8 +70992,8 @@
       <c r="A475" s="1">
         <v>474</v>
       </c>
-      <c r="B475">
-        <v>0</v>
+      <c r="B475" t="s">
+        <v>56</v>
       </c>
       <c r="C475" t="s">
         <v>57</v>
@@ -67292,8 +71054,8 @@
       <c r="A476" s="1">
         <v>475</v>
       </c>
-      <c r="B476">
-        <v>0</v>
+      <c r="B476" t="s">
+        <v>56</v>
       </c>
       <c r="C476" t="s">
         <v>57</v>
@@ -67354,8 +71116,8 @@
       <c r="A477" s="1">
         <v>476</v>
       </c>
-      <c r="B477">
-        <v>0</v>
+      <c r="B477" t="s">
+        <v>56</v>
       </c>
       <c r="C477" t="s">
         <v>57</v>
@@ -67416,8 +71178,8 @@
       <c r="A478" s="1">
         <v>477</v>
       </c>
-      <c r="B478">
-        <v>0</v>
+      <c r="B478" t="s">
+        <v>56</v>
       </c>
       <c r="C478" t="s">
         <v>57</v>
@@ -67478,8 +71240,8 @@
       <c r="A479" s="1">
         <v>478</v>
       </c>
-      <c r="B479">
-        <v>0</v>
+      <c r="B479" t="s">
+        <v>56</v>
       </c>
       <c r="C479" t="s">
         <v>57</v>
@@ -67540,8 +71302,8 @@
       <c r="A480" s="1">
         <v>479</v>
       </c>
-      <c r="B480">
-        <v>0</v>
+      <c r="B480" t="s">
+        <v>56</v>
       </c>
       <c r="C480" t="s">
         <v>57</v>
@@ -67602,8 +71364,8 @@
       <c r="A481" s="1">
         <v>480</v>
       </c>
-      <c r="B481">
-        <v>0</v>
+      <c r="B481" t="s">
+        <v>56</v>
       </c>
       <c r="C481" t="s">
         <v>57</v>
@@ -67664,8 +71426,8 @@
       <c r="A482" s="1">
         <v>481</v>
       </c>
-      <c r="B482">
-        <v>0</v>
+      <c r="B482" t="s">
+        <v>56</v>
       </c>
       <c r="C482" t="s">
         <v>57</v>
@@ -67726,8 +71488,8 @@
       <c r="A483" s="1">
         <v>482</v>
       </c>
-      <c r="B483">
-        <v>0</v>
+      <c r="B483" t="s">
+        <v>56</v>
       </c>
       <c r="C483" t="s">
         <v>57</v>
@@ -67788,8 +71550,8 @@
       <c r="A484" s="1">
         <v>483</v>
       </c>
-      <c r="B484">
-        <v>0</v>
+      <c r="B484" t="s">
+        <v>56</v>
       </c>
       <c r="C484" t="s">
         <v>57</v>
@@ -67850,8 +71612,8 @@
       <c r="A485" s="1">
         <v>484</v>
       </c>
-      <c r="B485">
-        <v>0</v>
+      <c r="B485" t="s">
+        <v>56</v>
       </c>
       <c r="C485" t="s">
         <v>57</v>
@@ -67912,8 +71674,8 @@
       <c r="A486" s="1">
         <v>485</v>
       </c>
-      <c r="B486">
-        <v>0</v>
+      <c r="B486" t="s">
+        <v>56</v>
       </c>
       <c r="C486" t="s">
         <v>57</v>
@@ -67974,8 +71736,8 @@
       <c r="A487" s="1">
         <v>486</v>
       </c>
-      <c r="B487">
-        <v>0</v>
+      <c r="B487" t="s">
+        <v>56</v>
       </c>
       <c r="C487" t="s">
         <v>57</v>
@@ -68036,8 +71798,8 @@
       <c r="A488" s="1">
         <v>487</v>
       </c>
-      <c r="B488">
-        <v>0</v>
+      <c r="B488" t="s">
+        <v>56</v>
       </c>
       <c r="C488" t="s">
         <v>57</v>
@@ -68098,8 +71860,8 @@
       <c r="A489" s="1">
         <v>488</v>
       </c>
-      <c r="B489">
-        <v>0</v>
+      <c r="B489" t="s">
+        <v>56</v>
       </c>
       <c r="C489" t="s">
         <v>57</v>
@@ -68160,8 +71922,8 @@
       <c r="A490" s="1">
         <v>489</v>
       </c>
-      <c r="B490">
-        <v>0</v>
+      <c r="B490" t="s">
+        <v>56</v>
       </c>
       <c r="C490" t="s">
         <v>57</v>
@@ -68222,8 +71984,8 @@
       <c r="A491" s="1">
         <v>490</v>
       </c>
-      <c r="B491">
-        <v>0</v>
+      <c r="B491" t="s">
+        <v>56</v>
       </c>
       <c r="C491" t="s">
         <v>57</v>
@@ -68284,8 +72046,8 @@
       <c r="A492" s="1">
         <v>491</v>
       </c>
-      <c r="B492">
-        <v>0</v>
+      <c r="B492" t="s">
+        <v>56</v>
       </c>
       <c r="C492" t="s">
         <v>57</v>
@@ -68346,8 +72108,8 @@
       <c r="A493" s="1">
         <v>492</v>
       </c>
-      <c r="B493">
-        <v>0</v>
+      <c r="B493" t="s">
+        <v>56</v>
       </c>
       <c r="C493" t="s">
         <v>57</v>
@@ -68408,8 +72170,8 @@
       <c r="A494" s="1">
         <v>493</v>
       </c>
-      <c r="B494">
-        <v>0</v>
+      <c r="B494" t="s">
+        <v>56</v>
       </c>
       <c r="C494" t="s">
         <v>57</v>
@@ -68470,8 +72232,8 @@
       <c r="A495" s="1">
         <v>494</v>
       </c>
-      <c r="B495">
-        <v>0</v>
+      <c r="B495" t="s">
+        <v>56</v>
       </c>
       <c r="C495" t="s">
         <v>57</v>
@@ -68532,8 +72294,8 @@
       <c r="A496" s="1">
         <v>495</v>
       </c>
-      <c r="B496">
-        <v>0</v>
+      <c r="B496" t="s">
+        <v>56</v>
       </c>
       <c r="C496" t="s">
         <v>57</v>
@@ -68594,8 +72356,8 @@
       <c r="A497" s="1">
         <v>496</v>
       </c>
-      <c r="B497">
-        <v>0</v>
+      <c r="B497" t="s">
+        <v>56</v>
       </c>
       <c r="C497" t="s">
         <v>57</v>
@@ -68656,8 +72418,8 @@
       <c r="A498" s="1">
         <v>497</v>
       </c>
-      <c r="B498">
-        <v>0</v>
+      <c r="B498" t="s">
+        <v>56</v>
       </c>
       <c r="C498" t="s">
         <v>57</v>
@@ -68718,8 +72480,8 @@
       <c r="A499" s="1">
         <v>498</v>
       </c>
-      <c r="B499">
-        <v>0</v>
+      <c r="B499" t="s">
+        <v>56</v>
       </c>
       <c r="C499" t="s">
         <v>57</v>
@@ -68780,8 +72542,8 @@
       <c r="A500" s="1">
         <v>499</v>
       </c>
-      <c r="B500">
-        <v>0</v>
+      <c r="B500" t="s">
+        <v>56</v>
       </c>
       <c r="C500" t="s">
         <v>57</v>
@@ -68842,8 +72604,8 @@
       <c r="A501" s="1">
         <v>500</v>
       </c>
-      <c r="B501">
-        <v>0</v>
+      <c r="B501" t="s">
+        <v>56</v>
       </c>
       <c r="C501" t="s">
         <v>57</v>
@@ -68904,8 +72666,8 @@
       <c r="A502" s="1">
         <v>501</v>
       </c>
-      <c r="B502">
-        <v>0</v>
+      <c r="B502" t="s">
+        <v>56</v>
       </c>
       <c r="C502" t="s">
         <v>57</v>
@@ -68966,8 +72728,8 @@
       <c r="A503" s="1">
         <v>502</v>
       </c>
-      <c r="B503">
-        <v>0</v>
+      <c r="B503" t="s">
+        <v>56</v>
       </c>
       <c r="C503" t="s">
         <v>57</v>
@@ -69028,8 +72790,8 @@
       <c r="A504" s="1">
         <v>503</v>
       </c>
-      <c r="B504">
-        <v>0</v>
+      <c r="B504" t="s">
+        <v>56</v>
       </c>
       <c r="C504" t="s">
         <v>57</v>
@@ -69090,8 +72852,8 @@
       <c r="A505" s="1">
         <v>504</v>
       </c>
-      <c r="B505">
-        <v>0</v>
+      <c r="B505" t="s">
+        <v>56</v>
       </c>
       <c r="C505" t="s">
         <v>57</v>
@@ -69152,8 +72914,8 @@
       <c r="A506" s="1">
         <v>505</v>
       </c>
-      <c r="B506">
-        <v>0</v>
+      <c r="B506" t="s">
+        <v>56</v>
       </c>
       <c r="C506" t="s">
         <v>57</v>
@@ -69214,8 +72976,8 @@
       <c r="A507" s="1">
         <v>506</v>
       </c>
-      <c r="B507">
-        <v>0</v>
+      <c r="B507" t="s">
+        <v>56</v>
       </c>
       <c r="C507" t="s">
         <v>57</v>
@@ -69276,8 +73038,8 @@
       <c r="A508" s="1">
         <v>507</v>
       </c>
-      <c r="B508">
-        <v>0</v>
+      <c r="B508" t="s">
+        <v>56</v>
       </c>
       <c r="C508" t="s">
         <v>57</v>
@@ -69338,8 +73100,8 @@
       <c r="A509" s="1">
         <v>508</v>
       </c>
-      <c r="B509">
-        <v>0</v>
+      <c r="B509" t="s">
+        <v>56</v>
       </c>
       <c r="C509" t="s">
         <v>57</v>
@@ -69400,8 +73162,8 @@
       <c r="A510" s="1">
         <v>509</v>
       </c>
-      <c r="B510">
-        <v>0</v>
+      <c r="B510" t="s">
+        <v>56</v>
       </c>
       <c r="C510" t="s">
         <v>57</v>
@@ -69462,8 +73224,8 @@
       <c r="A511" s="1">
         <v>510</v>
       </c>
-      <c r="B511">
-        <v>0</v>
+      <c r="B511" t="s">
+        <v>56</v>
       </c>
       <c r="C511" t="s">
         <v>57</v>
@@ -69585,7 +73347,7 @@
         <v>2019.864800800002</v>
       </c>
       <c r="X512" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="Y512">
         <v>342.9871346596516</v>
@@ -69740,7 +73502,7 @@
         <v>965.9786891999975</v>
       </c>
       <c r="X513" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="Y513">
         <v>418.6846936943224</v>
